--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91989023668924</v>
+        <v>20.91989023668923</v>
       </c>
       <c r="C2">
-        <v>16.65000419384016</v>
+        <v>16.65000419384018</v>
       </c>
       <c r="D2">
-        <v>7.234598081754172</v>
+        <v>7.234598081754222</v>
       </c>
       <c r="E2">
         <v>13.0116475516845</v>
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.44703237980583</v>
+        <v>35.44703237980578</v>
       </c>
       <c r="H2">
-        <v>29.74235444828958</v>
+        <v>29.7423544482895</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>19.14951916283639</v>
       </c>
       <c r="K2">
-        <v>16.11529330560152</v>
+        <v>16.1152933056015</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39375521791649</v>
+        <v>19.39375521791657</v>
       </c>
       <c r="C3">
-        <v>15.42087022995651</v>
+        <v>15.42087022995661</v>
       </c>
       <c r="D3">
-        <v>6.7071518857921</v>
+        <v>6.70715188579213</v>
       </c>
       <c r="E3">
-        <v>12.04360309459668</v>
+        <v>12.04360309459664</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.59631794065218</v>
+        <v>33.59631794065216</v>
       </c>
       <c r="H3">
-        <v>28.401898543367</v>
+        <v>28.40189854336698</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.7725816534048</v>
+        <v>17.7725816534049</v>
       </c>
       <c r="K3">
-        <v>14.93127659537909</v>
+        <v>14.93127659537911</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41273835012722</v>
+        <v>18.41273835012718</v>
       </c>
       <c r="C4">
-        <v>14.6323129975544</v>
+        <v>14.63231299755426</v>
       </c>
       <c r="D4">
-        <v>6.368360850954234</v>
+        <v>6.368360850954362</v>
       </c>
       <c r="E4">
-        <v>11.42346850490607</v>
+        <v>11.42346850490604</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.44903866478762</v>
+        <v>32.44903866478756</v>
       </c>
       <c r="H4">
-        <v>27.57873061026864</v>
+        <v>27.57873061026861</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.88789733367073</v>
+        <v>16.88789733367071</v>
       </c>
       <c r="K4">
-        <v>14.17233359082599</v>
+        <v>14.17233359082594</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00163002914414</v>
+        <v>18.00163002914423</v>
       </c>
       <c r="C5">
-        <v>14.3022046119657</v>
+        <v>14.30220461196588</v>
       </c>
       <c r="D5">
-        <v>6.227207158435959</v>
+        <v>6.227207158435934</v>
       </c>
       <c r="E5">
-        <v>11.1640736213138</v>
+        <v>11.16407362131377</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.9789678184249</v>
+        <v>31.97896781842482</v>
       </c>
       <c r="H5">
-        <v>27.24336656175103</v>
+        <v>27.24336656175095</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.51725227496911</v>
+        <v>16.51725227496921</v>
       </c>
       <c r="K5">
-        <v>13.85477204613856</v>
+        <v>13.8547720461386</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93267339127079</v>
+        <v>17.9326733912707</v>
       </c>
       <c r="C6">
-        <v>14.24685411813161</v>
+        <v>14.24685411813149</v>
       </c>
       <c r="D6">
-        <v>6.207101126046179</v>
+        <v>6.207101126046161</v>
       </c>
       <c r="E6">
-        <v>11.12059176777387</v>
+        <v>11.12059176777388</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.90076742279565</v>
+        <v>31.9007674227956</v>
       </c>
       <c r="H6">
-        <v>27.18768933375343</v>
+        <v>27.18768933375339</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.45508794520471</v>
+        <v>16.45508794520459</v>
       </c>
       <c r="K6">
-        <v>13.8015337994651</v>
+        <v>13.80153379946506</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40724025238349</v>
+        <v>18.40724025238336</v>
       </c>
       <c r="C7">
-        <v>14.62789684295378</v>
+        <v>14.62789684295393</v>
       </c>
       <c r="D7">
-        <v>6.366462670547701</v>
+        <v>6.366462670547778</v>
       </c>
       <c r="E7">
-        <v>11.41999754574139</v>
+        <v>11.41999754574145</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.44270907476005</v>
+        <v>32.44270907476</v>
       </c>
       <c r="H7">
-        <v>27.57420723326032</v>
+        <v>27.57420723326033</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.88294002702103</v>
+        <v>16.88294002702099</v>
       </c>
       <c r="K7">
-        <v>14.16808471150297</v>
+        <v>14.16808471150305</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40262626745663</v>
+        <v>20.40262626745664</v>
       </c>
       <c r="C8">
-        <v>16.23306954903289</v>
+        <v>16.23306954903263</v>
       </c>
       <c r="D8">
-        <v>7.055772675046108</v>
+        <v>7.055772675046112</v>
       </c>
       <c r="E8">
-        <v>12.6830780565854</v>
+        <v>12.68307805658549</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.81125962603965</v>
+        <v>34.81125962603971</v>
       </c>
       <c r="H8">
-        <v>29.28023628984338</v>
+        <v>29.2802362898434</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.68272989401639</v>
+        <v>18.68272989401632</v>
       </c>
       <c r="K8">
         <v>15.71351711749672</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.98093566774462</v>
+        <v>23.98093566774472</v>
       </c>
       <c r="C9">
-        <v>19.12477169274361</v>
+        <v>19.12477169274348</v>
       </c>
       <c r="D9">
-        <v>8.293947653252811</v>
+        <v>8.293947653252884</v>
       </c>
       <c r="E9">
-        <v>14.96628343054448</v>
+        <v>14.96628343054453</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.36713062135694</v>
+        <v>39.36713062135695</v>
       </c>
       <c r="H9">
-        <v>32.62412379492657</v>
+        <v>32.62412379492655</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.91399915743518</v>
+        <v>21.91399915743521</v>
       </c>
       <c r="K9">
-        <v>18.50332238145714</v>
+        <v>18.50332238145718</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42854498310964</v>
+        <v>26.42854498310978</v>
       </c>
       <c r="C10">
-        <v>21.11349001635211</v>
+        <v>21.11349001635193</v>
       </c>
       <c r="D10">
-        <v>9.142267670160338</v>
+        <v>9.142267670160278</v>
       </c>
       <c r="E10">
-        <v>16.54272510925992</v>
+        <v>16.54272510925988</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.66840004595903</v>
+        <v>42.66840004595911</v>
       </c>
       <c r="H10">
-        <v>35.08661703379289</v>
+        <v>35.08661703379295</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.12736678482094</v>
+        <v>24.12736678482098</v>
       </c>
       <c r="K10">
-        <v>20.42660302208324</v>
+        <v>20.42660302208319</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.50869303559835</v>
+        <v>27.50869303559826</v>
       </c>
       <c r="C11">
-        <v>21.99417304073369</v>
+        <v>21.99417304073361</v>
       </c>
       <c r="D11">
-        <v>9.516955249830197</v>
+        <v>9.516955249830183</v>
       </c>
       <c r="E11">
-        <v>17.24255181285092</v>
+        <v>17.24255181285089</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.16547610834473</v>
+        <v>44.16547610834452</v>
       </c>
       <c r="H11">
-        <v>36.21205612488535</v>
+        <v>36.21205612488517</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.1050466877784</v>
+        <v>25.10504668777827</v>
       </c>
       <c r="K11">
-        <v>21.27960241629032</v>
+        <v>21.27960241629025</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91353805034442</v>
+        <v>27.91353805034443</v>
       </c>
       <c r="C12">
-        <v>22.32476439554668</v>
+        <v>22.32476439554677</v>
       </c>
       <c r="D12">
         <v>9.657435367961456</v>
       </c>
       <c r="E12">
-        <v>17.50553485387927</v>
+        <v>17.50553485387919</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.73239860705818</v>
+        <v>44.73239860705836</v>
       </c>
       <c r="H12">
-        <v>36.63950774420407</v>
+        <v>36.6395077442042</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.47163760959944</v>
+        <v>25.47163760959951</v>
       </c>
       <c r="K12">
         <v>21.60001518353608</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82652276028357</v>
+        <v>27.82652276028352</v>
       </c>
       <c r="C13">
-        <v>22.25368503312781</v>
+        <v>22.25368503312772</v>
       </c>
       <c r="D13">
-        <v>9.627239304792495</v>
+        <v>9.627239304792585</v>
       </c>
       <c r="E13">
-        <v>17.4489785897249</v>
+        <v>17.44897858972485</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.61028769952692</v>
+        <v>44.61028769952677</v>
       </c>
       <c r="H13">
-        <v>36.54738158397235</v>
+        <v>36.54738158397222</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.39283733654112</v>
+        <v>25.39283733654105</v>
       </c>
       <c r="K13">
         <v>21.53111431943855</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54207989520609</v>
+        <v>27.54207989520592</v>
       </c>
       <c r="C14">
-        <v>22.02142571418217</v>
+        <v>22.02142571418205</v>
       </c>
       <c r="D14">
-        <v>9.52853949646317</v>
+        <v>9.528539496463081</v>
       </c>
       <c r="E14">
-        <v>17.26422524362212</v>
+        <v>17.26422524362206</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.21211214839536</v>
+        <v>44.21211214839519</v>
       </c>
       <c r="H14">
-        <v>36.24719370804378</v>
+        <v>36.24719370804367</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.13527562062676</v>
+        <v>25.13527562062661</v>
       </c>
       <c r="K14">
-        <v>21.30601155278385</v>
+        <v>21.30601155278379</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.36732527203799</v>
+        <v>27.36732527203801</v>
       </c>
       <c r="C15">
-        <v>21.87879984366514</v>
+        <v>21.87879984366522</v>
       </c>
       <c r="D15">
-        <v>9.467906673418069</v>
+        <v>9.467906673418023</v>
       </c>
       <c r="E15">
-        <v>17.15080976953415</v>
+        <v>17.15080976953421</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.96824408264731</v>
+        <v>43.96824408264728</v>
       </c>
       <c r="H15">
-        <v>36.06350413784686</v>
+        <v>36.06350413784683</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.97705660293587</v>
+        <v>24.97705660293591</v>
       </c>
       <c r="K15">
-        <v>21.16780911756344</v>
+        <v>21.1678091175635</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.35733421498145</v>
+        <v>26.3573342149815</v>
       </c>
       <c r="C16">
-        <v>21.05549701308673</v>
+        <v>21.05549701308668</v>
       </c>
       <c r="D16">
-        <v>9.117572153933114</v>
+        <v>9.117572153933216</v>
       </c>
       <c r="E16">
-        <v>16.49667924497712</v>
+        <v>16.4966792449772</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57052175139952</v>
+        <v>42.57052175139967</v>
       </c>
       <c r="H16">
-        <v>35.01321270584699</v>
+        <v>35.01321270584712</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>24.06293159250488</v>
       </c>
       <c r="K16">
-        <v>20.37046153338312</v>
+        <v>20.37046153338314</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72961036908951</v>
+        <v>25.72961036908947</v>
       </c>
       <c r="C17">
-        <v>20.54464136326825</v>
+        <v>20.54464136326808</v>
       </c>
       <c r="D17">
-        <v>8.899917021136895</v>
+        <v>8.899917021136835</v>
       </c>
       <c r="E17">
-        <v>16.09126326608679</v>
+        <v>16.09126326608681</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.71228135231843</v>
+        <v>41.71228135231828</v>
       </c>
       <c r="H17">
-        <v>34.37054939591356</v>
+        <v>34.37054939591346</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.49503957445778</v>
+        <v>23.49503957445772</v>
       </c>
       <c r="K17">
-        <v>19.87606543838222</v>
+        <v>19.87606543838217</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36538612549911</v>
+        <v>25.36538612549906</v>
       </c>
       <c r="C18">
-        <v>20.24851448424016</v>
+        <v>20.24851448424011</v>
       </c>
       <c r="D18">
-        <v>8.773657482840981</v>
+        <v>8.773657482840964</v>
       </c>
       <c r="E18">
-        <v>15.85641797920531</v>
+        <v>15.85641797920534</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>23.16561665708657</v>
       </c>
       <c r="K18">
-        <v>19.58960147716956</v>
+        <v>19.58960147716958</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.24150418238504</v>
+        <v>25.24150418238505</v>
       </c>
       <c r="C19">
-        <v>20.14784150043117</v>
+        <v>20.14784150043126</v>
       </c>
       <c r="D19">
         <v>8.730718627574623</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.05074198368678</v>
+        <v>41.05074198368696</v>
       </c>
       <c r="H19">
-        <v>33.87642172089867</v>
+        <v>33.87642172089879</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.05358553230429</v>
+        <v>23.05358553230433</v>
       </c>
       <c r="K19">
         <v>19.49223369843538</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.796757112853</v>
+        <v>25.79675711285289</v>
       </c>
       <c r="C20">
-        <v>20.59925681383855</v>
+        <v>20.59925681383849</v>
       </c>
       <c r="D20">
-        <v>8.923196138315966</v>
+        <v>8.923196138316026</v>
       </c>
       <c r="E20">
-        <v>16.13458927928204</v>
+        <v>16.13458927928196</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.80368951010401</v>
+        <v>41.80368951010388</v>
       </c>
       <c r="H20">
-        <v>34.43891200168488</v>
+        <v>34.43891200168478</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.55577726625093</v>
+        <v>23.55577726625079</v>
       </c>
       <c r="K20">
-        <v>19.92890844440495</v>
+        <v>19.92890844440488</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62573587266573</v>
+        <v>27.62573587266572</v>
       </c>
       <c r="C21">
-        <v>22.08971988125267</v>
+        <v>22.08971988125262</v>
       </c>
       <c r="D21">
-        <v>9.55756635034097</v>
+        <v>9.557566350340942</v>
       </c>
       <c r="E21">
-        <v>17.31854266443994</v>
+        <v>17.31854266443996</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.32905898836437</v>
+        <v>44.32905898836444</v>
       </c>
       <c r="H21">
-        <v>36.33532659517106</v>
+        <v>36.33532659517112</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.21102141917495</v>
+        <v>25.21102141917493</v>
       </c>
       <c r="K21">
-        <v>21.37219535318499</v>
+        <v>21.37219535318498</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.79705550174384</v>
+        <v>28.79705550174386</v>
       </c>
       <c r="C22">
         <v>23.04722540060708</v>
       </c>
       <c r="D22">
-        <v>9.964092850462839</v>
+        <v>9.964092850462915</v>
       </c>
       <c r="E22">
-        <v>18.08079453426488</v>
+        <v>18.08079453426489</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.98010106229403</v>
+        <v>45.98010106229408</v>
       </c>
       <c r="H22">
-        <v>37.58253730895338</v>
+        <v>37.58253730895344</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.27196833401031</v>
+        <v>26.27196833401034</v>
       </c>
       <c r="K22">
         <v>22.30064753781522</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17387021741346</v>
+        <v>28.1738702174136</v>
       </c>
       <c r="C23">
-        <v>22.53749792821726</v>
+        <v>22.53749792821729</v>
       </c>
       <c r="D23">
-        <v>9.747782261812835</v>
+        <v>9.747782261812818</v>
       </c>
       <c r="E23">
-        <v>17.67484547597869</v>
+        <v>17.67484547597868</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09856679767993</v>
+        <v>45.09856679767996</v>
       </c>
       <c r="H23">
-        <v>36.91594367009139</v>
+        <v>36.91594367009142</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.70741562327023</v>
+        <v>25.70741562327036</v>
       </c>
       <c r="K23">
-        <v>21.8062615309077</v>
+        <v>21.80626153090774</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76641050922913</v>
+        <v>25.76641050922909</v>
       </c>
       <c r="C24">
-        <v>20.57457277458045</v>
+        <v>20.57457277458052</v>
       </c>
       <c r="D24">
-        <v>8.912675173892653</v>
+        <v>8.912675173892698</v>
       </c>
       <c r="E24">
-        <v>16.11500712358171</v>
+        <v>16.11500712358175</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.76236616857988</v>
+        <v>41.76236616858009</v>
       </c>
       <c r="H24">
-        <v>34.40800441671005</v>
+        <v>34.40800441671023</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>23.52832693617188</v>
       </c>
       <c r="K24">
-        <v>19.90502510430633</v>
+        <v>19.90502510430635</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>23.04657915930408</v>
       </c>
       <c r="C25">
-        <v>18.36797536054977</v>
+        <v>18.36797536054974</v>
       </c>
       <c r="D25">
-        <v>7.970395537135995</v>
+        <v>7.970395537136034</v>
       </c>
       <c r="E25">
-        <v>14.36773449608781</v>
+        <v>14.36773449608782</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>38.14388075133833</v>
       </c>
       <c r="H25">
-        <v>31.71939529469903</v>
+        <v>31.71939529469905</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.06976285334199</v>
+        <v>21.06976285334193</v>
       </c>
       <c r="K25">
-        <v>17.77244708349954</v>
+        <v>17.77244708349951</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91989023668923</v>
+        <v>20.91989023668924</v>
       </c>
       <c r="C2">
-        <v>16.65000419384018</v>
+        <v>16.65000419384016</v>
       </c>
       <c r="D2">
-        <v>7.234598081754222</v>
+        <v>7.234598081754172</v>
       </c>
       <c r="E2">
         <v>13.0116475516845</v>
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.44703237980578</v>
+        <v>35.44703237980583</v>
       </c>
       <c r="H2">
-        <v>29.7423544482895</v>
+        <v>29.74235444828958</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>19.14951916283639</v>
       </c>
       <c r="K2">
-        <v>16.1152933056015</v>
+        <v>16.11529330560152</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39375521791657</v>
+        <v>19.39375521791649</v>
       </c>
       <c r="C3">
-        <v>15.42087022995661</v>
+        <v>15.42087022995651</v>
       </c>
       <c r="D3">
-        <v>6.70715188579213</v>
+        <v>6.7071518857921</v>
       </c>
       <c r="E3">
-        <v>12.04360309459664</v>
+        <v>12.04360309459668</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.59631794065216</v>
+        <v>33.59631794065218</v>
       </c>
       <c r="H3">
-        <v>28.40189854336698</v>
+        <v>28.401898543367</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.7725816534049</v>
+        <v>17.7725816534048</v>
       </c>
       <c r="K3">
-        <v>14.93127659537911</v>
+        <v>14.93127659537909</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41273835012718</v>
+        <v>18.41273835012722</v>
       </c>
       <c r="C4">
-        <v>14.63231299755426</v>
+        <v>14.6323129975544</v>
       </c>
       <c r="D4">
-        <v>6.368360850954362</v>
+        <v>6.368360850954234</v>
       </c>
       <c r="E4">
-        <v>11.42346850490604</v>
+        <v>11.42346850490607</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.44903866478756</v>
+        <v>32.44903866478762</v>
       </c>
       <c r="H4">
-        <v>27.57873061026861</v>
+        <v>27.57873061026864</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.88789733367071</v>
+        <v>16.88789733367073</v>
       </c>
       <c r="K4">
-        <v>14.17233359082594</v>
+        <v>14.17233359082599</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00163002914423</v>
+        <v>18.00163002914414</v>
       </c>
       <c r="C5">
-        <v>14.30220461196588</v>
+        <v>14.3022046119657</v>
       </c>
       <c r="D5">
-        <v>6.227207158435934</v>
+        <v>6.227207158435959</v>
       </c>
       <c r="E5">
-        <v>11.16407362131377</v>
+        <v>11.1640736213138</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.97896781842482</v>
+        <v>31.9789678184249</v>
       </c>
       <c r="H5">
-        <v>27.24336656175095</v>
+        <v>27.24336656175103</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>16.51725227496921</v>
+        <v>16.51725227496911</v>
       </c>
       <c r="K5">
-        <v>13.8547720461386</v>
+        <v>13.85477204613856</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.9326733912707</v>
+        <v>17.93267339127079</v>
       </c>
       <c r="C6">
-        <v>14.24685411813149</v>
+        <v>14.24685411813161</v>
       </c>
       <c r="D6">
-        <v>6.207101126046161</v>
+        <v>6.207101126046179</v>
       </c>
       <c r="E6">
-        <v>11.12059176777388</v>
+        <v>11.12059176777387</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.9007674227956</v>
+        <v>31.90076742279565</v>
       </c>
       <c r="H6">
-        <v>27.18768933375339</v>
+        <v>27.18768933375343</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>16.45508794520459</v>
+        <v>16.45508794520471</v>
       </c>
       <c r="K6">
-        <v>13.80153379946506</v>
+        <v>13.8015337994651</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40724025238336</v>
+        <v>18.40724025238349</v>
       </c>
       <c r="C7">
-        <v>14.62789684295393</v>
+        <v>14.62789684295378</v>
       </c>
       <c r="D7">
-        <v>6.366462670547778</v>
+        <v>6.366462670547701</v>
       </c>
       <c r="E7">
-        <v>11.41999754574145</v>
+        <v>11.41999754574139</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.44270907476</v>
+        <v>32.44270907476005</v>
       </c>
       <c r="H7">
-        <v>27.57420723326033</v>
+        <v>27.57420723326032</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.88294002702099</v>
+        <v>16.88294002702103</v>
       </c>
       <c r="K7">
-        <v>14.16808471150305</v>
+        <v>14.16808471150297</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40262626745664</v>
+        <v>20.40262626745663</v>
       </c>
       <c r="C8">
-        <v>16.23306954903263</v>
+        <v>16.23306954903289</v>
       </c>
       <c r="D8">
-        <v>7.055772675046112</v>
+        <v>7.055772675046108</v>
       </c>
       <c r="E8">
-        <v>12.68307805658549</v>
+        <v>12.6830780565854</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.81125962603971</v>
+        <v>34.81125962603965</v>
       </c>
       <c r="H8">
-        <v>29.2802362898434</v>
+        <v>29.28023628984338</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.68272989401632</v>
+        <v>18.68272989401639</v>
       </c>
       <c r="K8">
         <v>15.71351711749672</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.98093566774472</v>
+        <v>23.98093566774462</v>
       </c>
       <c r="C9">
-        <v>19.12477169274348</v>
+        <v>19.12477169274361</v>
       </c>
       <c r="D9">
-        <v>8.293947653252884</v>
+        <v>8.293947653252811</v>
       </c>
       <c r="E9">
-        <v>14.96628343054453</v>
+        <v>14.96628343054448</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.36713062135695</v>
+        <v>39.36713062135694</v>
       </c>
       <c r="H9">
-        <v>32.62412379492655</v>
+        <v>32.62412379492657</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.91399915743521</v>
+        <v>21.91399915743518</v>
       </c>
       <c r="K9">
-        <v>18.50332238145718</v>
+        <v>18.50332238145714</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42854498310978</v>
+        <v>26.42854498310964</v>
       </c>
       <c r="C10">
-        <v>21.11349001635193</v>
+        <v>21.11349001635211</v>
       </c>
       <c r="D10">
-        <v>9.142267670160278</v>
+        <v>9.142267670160338</v>
       </c>
       <c r="E10">
-        <v>16.54272510925988</v>
+        <v>16.54272510925992</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.66840004595911</v>
+        <v>42.66840004595903</v>
       </c>
       <c r="H10">
-        <v>35.08661703379295</v>
+        <v>35.08661703379289</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>24.12736678482098</v>
+        <v>24.12736678482094</v>
       </c>
       <c r="K10">
-        <v>20.42660302208319</v>
+        <v>20.42660302208324</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.50869303559826</v>
+        <v>27.50869303559835</v>
       </c>
       <c r="C11">
-        <v>21.99417304073361</v>
+        <v>21.99417304073369</v>
       </c>
       <c r="D11">
-        <v>9.516955249830183</v>
+        <v>9.516955249830197</v>
       </c>
       <c r="E11">
-        <v>17.24255181285089</v>
+        <v>17.24255181285092</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.16547610834452</v>
+        <v>44.16547610834473</v>
       </c>
       <c r="H11">
-        <v>36.21205612488517</v>
+        <v>36.21205612488535</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>25.10504668777827</v>
+        <v>25.1050466877784</v>
       </c>
       <c r="K11">
-        <v>21.27960241629025</v>
+        <v>21.27960241629032</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91353805034443</v>
+        <v>27.91353805034442</v>
       </c>
       <c r="C12">
-        <v>22.32476439554677</v>
+        <v>22.32476439554668</v>
       </c>
       <c r="D12">
         <v>9.657435367961456</v>
       </c>
       <c r="E12">
-        <v>17.50553485387919</v>
+        <v>17.50553485387927</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.73239860705836</v>
+        <v>44.73239860705818</v>
       </c>
       <c r="H12">
-        <v>36.6395077442042</v>
+        <v>36.63950774420407</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>25.47163760959951</v>
+        <v>25.47163760959944</v>
       </c>
       <c r="K12">
         <v>21.60001518353608</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82652276028352</v>
+        <v>27.82652276028357</v>
       </c>
       <c r="C13">
-        <v>22.25368503312772</v>
+        <v>22.25368503312781</v>
       </c>
       <c r="D13">
-        <v>9.627239304792585</v>
+        <v>9.627239304792495</v>
       </c>
       <c r="E13">
-        <v>17.44897858972485</v>
+        <v>17.4489785897249</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.61028769952677</v>
+        <v>44.61028769952692</v>
       </c>
       <c r="H13">
-        <v>36.54738158397222</v>
+        <v>36.54738158397235</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>25.39283733654105</v>
+        <v>25.39283733654112</v>
       </c>
       <c r="K13">
         <v>21.53111431943855</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54207989520592</v>
+        <v>27.54207989520609</v>
       </c>
       <c r="C14">
-        <v>22.02142571418205</v>
+        <v>22.02142571418217</v>
       </c>
       <c r="D14">
-        <v>9.528539496463081</v>
+        <v>9.52853949646317</v>
       </c>
       <c r="E14">
-        <v>17.26422524362206</v>
+        <v>17.26422524362212</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.21211214839519</v>
+        <v>44.21211214839536</v>
       </c>
       <c r="H14">
-        <v>36.24719370804367</v>
+        <v>36.24719370804378</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.13527562062661</v>
+        <v>25.13527562062676</v>
       </c>
       <c r="K14">
-        <v>21.30601155278379</v>
+        <v>21.30601155278385</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.36732527203801</v>
+        <v>27.36732527203799</v>
       </c>
       <c r="C15">
-        <v>21.87879984366522</v>
+        <v>21.87879984366514</v>
       </c>
       <c r="D15">
-        <v>9.467906673418023</v>
+        <v>9.467906673418069</v>
       </c>
       <c r="E15">
-        <v>17.15080976953421</v>
+        <v>17.15080976953415</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.96824408264728</v>
+        <v>43.96824408264731</v>
       </c>
       <c r="H15">
-        <v>36.06350413784683</v>
+        <v>36.06350413784686</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>24.97705660293591</v>
+        <v>24.97705660293587</v>
       </c>
       <c r="K15">
-        <v>21.1678091175635</v>
+        <v>21.16780911756344</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.3573342149815</v>
+        <v>26.35733421498145</v>
       </c>
       <c r="C16">
-        <v>21.05549701308668</v>
+        <v>21.05549701308673</v>
       </c>
       <c r="D16">
-        <v>9.117572153933216</v>
+        <v>9.117572153933114</v>
       </c>
       <c r="E16">
-        <v>16.4966792449772</v>
+        <v>16.49667924497712</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57052175139967</v>
+        <v>42.57052175139952</v>
       </c>
       <c r="H16">
-        <v>35.01321270584712</v>
+        <v>35.01321270584699</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>24.06293159250488</v>
       </c>
       <c r="K16">
-        <v>20.37046153338314</v>
+        <v>20.37046153338312</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72961036908947</v>
+        <v>25.72961036908951</v>
       </c>
       <c r="C17">
-        <v>20.54464136326808</v>
+        <v>20.54464136326825</v>
       </c>
       <c r="D17">
-        <v>8.899917021136835</v>
+        <v>8.899917021136895</v>
       </c>
       <c r="E17">
-        <v>16.09126326608681</v>
+        <v>16.09126326608679</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.71228135231828</v>
+        <v>41.71228135231843</v>
       </c>
       <c r="H17">
-        <v>34.37054939591346</v>
+        <v>34.37054939591356</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>23.49503957445772</v>
+        <v>23.49503957445778</v>
       </c>
       <c r="K17">
-        <v>19.87606543838217</v>
+        <v>19.87606543838222</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36538612549906</v>
+        <v>25.36538612549911</v>
       </c>
       <c r="C18">
-        <v>20.24851448424011</v>
+        <v>20.24851448424016</v>
       </c>
       <c r="D18">
-        <v>8.773657482840964</v>
+        <v>8.773657482840981</v>
       </c>
       <c r="E18">
-        <v>15.85641797920534</v>
+        <v>15.85641797920531</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>23.16561665708657</v>
       </c>
       <c r="K18">
-        <v>19.58960147716958</v>
+        <v>19.58960147716956</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.24150418238505</v>
+        <v>25.24150418238504</v>
       </c>
       <c r="C19">
-        <v>20.14784150043126</v>
+        <v>20.14784150043117</v>
       </c>
       <c r="D19">
         <v>8.730718627574623</v>
@@ -1073,16 +1073,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.05074198368696</v>
+        <v>41.05074198368678</v>
       </c>
       <c r="H19">
-        <v>33.87642172089879</v>
+        <v>33.87642172089867</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>23.05358553230433</v>
+        <v>23.05358553230429</v>
       </c>
       <c r="K19">
         <v>19.49223369843538</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.79675711285289</v>
+        <v>25.796757112853</v>
       </c>
       <c r="C20">
-        <v>20.59925681383849</v>
+        <v>20.59925681383855</v>
       </c>
       <c r="D20">
-        <v>8.923196138316026</v>
+        <v>8.923196138315966</v>
       </c>
       <c r="E20">
-        <v>16.13458927928196</v>
+        <v>16.13458927928204</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.80368951010388</v>
+        <v>41.80368951010401</v>
       </c>
       <c r="H20">
-        <v>34.43891200168478</v>
+        <v>34.43891200168488</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>23.55577726625079</v>
+        <v>23.55577726625093</v>
       </c>
       <c r="K20">
-        <v>19.92890844440488</v>
+        <v>19.92890844440495</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62573587266572</v>
+        <v>27.62573587266573</v>
       </c>
       <c r="C21">
-        <v>22.08971988125262</v>
+        <v>22.08971988125267</v>
       </c>
       <c r="D21">
-        <v>9.557566350340942</v>
+        <v>9.55756635034097</v>
       </c>
       <c r="E21">
-        <v>17.31854266443996</v>
+        <v>17.31854266443994</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.32905898836444</v>
+        <v>44.32905898836437</v>
       </c>
       <c r="H21">
-        <v>36.33532659517112</v>
+        <v>36.33532659517106</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>25.21102141917493</v>
+        <v>25.21102141917495</v>
       </c>
       <c r="K21">
-        <v>21.37219535318498</v>
+        <v>21.37219535318499</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.79705550174386</v>
+        <v>28.79705550174384</v>
       </c>
       <c r="C22">
         <v>23.04722540060708</v>
       </c>
       <c r="D22">
-        <v>9.964092850462915</v>
+        <v>9.964092850462839</v>
       </c>
       <c r="E22">
-        <v>18.08079453426489</v>
+        <v>18.08079453426488</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.98010106229408</v>
+        <v>45.98010106229403</v>
       </c>
       <c r="H22">
-        <v>37.58253730895344</v>
+        <v>37.58253730895338</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>26.27196833401034</v>
+        <v>26.27196833401031</v>
       </c>
       <c r="K22">
         <v>22.30064753781522</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1738702174136</v>
+        <v>28.17387021741346</v>
       </c>
       <c r="C23">
-        <v>22.53749792821729</v>
+        <v>22.53749792821726</v>
       </c>
       <c r="D23">
-        <v>9.747782261812818</v>
+        <v>9.747782261812835</v>
       </c>
       <c r="E23">
-        <v>17.67484547597868</v>
+        <v>17.67484547597869</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09856679767996</v>
+        <v>45.09856679767993</v>
       </c>
       <c r="H23">
-        <v>36.91594367009142</v>
+        <v>36.91594367009139</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>25.70741562327036</v>
+        <v>25.70741562327023</v>
       </c>
       <c r="K23">
-        <v>21.80626153090774</v>
+        <v>21.8062615309077</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76641050922909</v>
+        <v>25.76641050922913</v>
       </c>
       <c r="C24">
-        <v>20.57457277458052</v>
+        <v>20.57457277458045</v>
       </c>
       <c r="D24">
-        <v>8.912675173892698</v>
+        <v>8.912675173892653</v>
       </c>
       <c r="E24">
-        <v>16.11500712358175</v>
+        <v>16.11500712358171</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.76236616858009</v>
+        <v>41.76236616857988</v>
       </c>
       <c r="H24">
-        <v>34.40800441671023</v>
+        <v>34.40800441671005</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>23.52832693617188</v>
       </c>
       <c r="K24">
-        <v>19.90502510430635</v>
+        <v>19.90502510430633</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,13 +1289,13 @@
         <v>23.04657915930408</v>
       </c>
       <c r="C25">
-        <v>18.36797536054974</v>
+        <v>18.36797536054977</v>
       </c>
       <c r="D25">
-        <v>7.970395537136034</v>
+        <v>7.970395537135995</v>
       </c>
       <c r="E25">
-        <v>14.36773449608782</v>
+        <v>14.36773449608781</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,16 +1304,16 @@
         <v>38.14388075133833</v>
       </c>
       <c r="H25">
-        <v>31.71939529469905</v>
+        <v>31.71939529469903</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21.06976285334193</v>
+        <v>21.06976285334199</v>
       </c>
       <c r="K25">
-        <v>17.77244708349951</v>
+        <v>17.77244708349954</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91989023668924</v>
+        <v>20.91926815464454</v>
       </c>
       <c r="C2">
-        <v>16.65000419384016</v>
+        <v>16.64078256888734</v>
       </c>
       <c r="D2">
-        <v>7.234598081754172</v>
+        <v>7.234433705293168</v>
       </c>
       <c r="E2">
-        <v>13.0116475516845</v>
+        <v>13.01304233418635</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.44703237980583</v>
+        <v>34.53869776058357</v>
       </c>
       <c r="H2">
-        <v>29.74235444828958</v>
+        <v>35.48630158991383</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.7031209483118</v>
       </c>
       <c r="J2">
-        <v>19.14951916283639</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.11529330560152</v>
+        <v>19.14611832675779</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16.11327276563841</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39375521791649</v>
+        <v>19.39347212413755</v>
       </c>
       <c r="C3">
-        <v>15.42087022995651</v>
+        <v>15.41249272085495</v>
       </c>
       <c r="D3">
-        <v>6.7071518857921</v>
+        <v>6.707045380360189</v>
       </c>
       <c r="E3">
-        <v>12.04360309459668</v>
+        <v>12.04496368616332</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.59631794065218</v>
+        <v>32.46711151412826</v>
       </c>
       <c r="H3">
-        <v>28.401898543367</v>
+        <v>33.63410802476153</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.36569422785395</v>
       </c>
       <c r="J3">
-        <v>17.7725816534048</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.93127659537909</v>
+        <v>17.76970348989586</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>14.92952083461351</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41273835012722</v>
+        <v>18.41264764644099</v>
       </c>
       <c r="C4">
-        <v>14.6323129975544</v>
+        <v>14.62445747487632</v>
       </c>
       <c r="D4">
-        <v>6.368360850954234</v>
+        <v>6.368285974828482</v>
       </c>
       <c r="E4">
-        <v>11.42346850490607</v>
+        <v>11.42479824559927</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.44903866478762</v>
+        <v>31.16948274768306</v>
       </c>
       <c r="H4">
-        <v>27.57873061026864</v>
+        <v>32.48596689370338</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.54446566168481</v>
       </c>
       <c r="J4">
-        <v>16.88789733367073</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.17233359082599</v>
+        <v>16.8853350709981</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>14.17073475346064</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00163002914414</v>
+        <v>18.00161427309483</v>
       </c>
       <c r="C5">
-        <v>14.3022046119657</v>
+        <v>14.29456323011044</v>
       </c>
       <c r="D5">
-        <v>6.227207158435959</v>
+        <v>6.227162203355544</v>
       </c>
       <c r="E5">
-        <v>11.1640736213138</v>
+        <v>11.16538855886976</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.9789678184249</v>
+        <v>30.63438939246862</v>
       </c>
       <c r="H5">
-        <v>27.24336656175103</v>
+        <v>32.01555758459673</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.20991189337256</v>
       </c>
       <c r="J5">
-        <v>16.51725227496911</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.85477204613856</v>
+        <v>16.5148180560098</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>13.85323611994614</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93267339127079</v>
+        <v>17.93266988483625</v>
       </c>
       <c r="C6">
-        <v>14.24685411813161</v>
+        <v>14.23924839325999</v>
       </c>
       <c r="D6">
-        <v>6.207101126046179</v>
+        <v>6.207057715774648</v>
       </c>
       <c r="E6">
-        <v>11.12059176777387</v>
+        <v>11.12190411903173</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.90076742279565</v>
+        <v>30.54516438167069</v>
       </c>
       <c r="H6">
-        <v>27.18768933375343</v>
+        <v>31.93730179018239</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.15437041197767</v>
       </c>
       <c r="J6">
-        <v>16.45508794520471</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>13.8015337994651</v>
+        <v>16.45267496181917</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>13.80000826723472</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40724025238349</v>
+        <v>18.40715057284142</v>
       </c>
       <c r="C7">
-        <v>14.62789684295378</v>
+        <v>14.62004420188183</v>
       </c>
       <c r="D7">
-        <v>6.366462670547701</v>
+        <v>6.366387960166422</v>
       </c>
       <c r="E7">
-        <v>11.41999754574139</v>
+        <v>11.42132709552929</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.44270907476005</v>
+        <v>31.16229148792944</v>
       </c>
       <c r="H7">
-        <v>27.57420723326032</v>
+        <v>32.47963268595174</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.53995313176085</v>
       </c>
       <c r="J7">
-        <v>16.88294002702103</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.16808471150297</v>
+        <v>16.88037949326549</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>14.16648672630783</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40262626745663</v>
+        <v>20.40212467224175</v>
       </c>
       <c r="C8">
-        <v>16.23306954903289</v>
+        <v>16.22413853691158</v>
       </c>
       <c r="D8">
-        <v>7.055772675046108</v>
+        <v>7.055629156321388</v>
       </c>
       <c r="E8">
-        <v>12.6830780565854</v>
+        <v>12.68446325823843</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.81125962603965</v>
+        <v>33.82979011579642</v>
       </c>
       <c r="H8">
-        <v>29.28023628984338</v>
+        <v>34.85000986730175</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.24203086243449</v>
       </c>
       <c r="J8">
-        <v>18.68272989401639</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>15.71351711749672</v>
+        <v>18.67951068553366</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15.71158929700549</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.98093566774462</v>
+        <v>23.97947286105824</v>
       </c>
       <c r="C9">
-        <v>19.12477169274361</v>
+        <v>19.113727343056</v>
       </c>
       <c r="D9">
-        <v>8.293947653252811</v>
+        <v>8.29363034110991</v>
       </c>
       <c r="E9">
-        <v>14.96628343054448</v>
+        <v>14.9676857357729</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.36713062135694</v>
+        <v>38.85812039997716</v>
       </c>
       <c r="H9">
-        <v>32.62412379492657</v>
+        <v>39.40978371411391</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.57878300000461</v>
       </c>
       <c r="J9">
-        <v>21.91399915743518</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>18.50332238145714</v>
+        <v>21.90941816012094</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>18.50068182161985</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42854498310964</v>
+        <v>26.42623185718134</v>
       </c>
       <c r="C10">
-        <v>21.11349001635211</v>
+        <v>21.10084420859873</v>
       </c>
       <c r="D10">
-        <v>9.142267670160338</v>
+        <v>9.141785071710268</v>
       </c>
       <c r="E10">
-        <v>16.54272510925992</v>
+        <v>16.54405895432484</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.66840004595903</v>
+        <v>42.44217819665491</v>
       </c>
       <c r="H10">
-        <v>35.08661703379289</v>
+        <v>42.71405468045973</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.03635784903834</v>
       </c>
       <c r="J10">
-        <v>24.12736678482094</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.42660302208324</v>
+        <v>24.12169102367686</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>20.42336141792166</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.50869303559835</v>
+        <v>27.50594635151877</v>
       </c>
       <c r="C11">
-        <v>21.99417304073369</v>
+        <v>21.98077302424541</v>
       </c>
       <c r="D11">
-        <v>9.516955249830197</v>
+        <v>9.516385036256104</v>
       </c>
       <c r="E11">
-        <v>17.24255181285092</v>
+        <v>17.24382905308439</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.16547610834473</v>
+        <v>44.05513366993915</v>
       </c>
       <c r="H11">
-        <v>36.21205612488535</v>
+        <v>44.21251194966842</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.1596106048165</v>
       </c>
       <c r="J11">
-        <v>25.1050466877784</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.27960241629032</v>
+        <v>25.09883722489399</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>21.2760591561892</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91353805034442</v>
+        <v>27.91061874508387</v>
       </c>
       <c r="C12">
-        <v>22.32476439554668</v>
+        <v>22.31107341071235</v>
       </c>
       <c r="D12">
-        <v>9.657435367961456</v>
+        <v>9.656829710788541</v>
       </c>
       <c r="E12">
-        <v>17.50553485387927</v>
+        <v>17.50678608933239</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.73239860705818</v>
+        <v>44.66420363583496</v>
       </c>
       <c r="H12">
-        <v>36.63950774420407</v>
+        <v>44.77995850004198</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.58623937416721</v>
       </c>
       <c r="J12">
-        <v>25.47163760959944</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>21.60001518353608</v>
+        <v>25.46521924518215</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>21.59635234278069</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82652276028357</v>
+        <v>27.82364103985885</v>
       </c>
       <c r="C13">
-        <v>22.25368503312781</v>
+        <v>22.2400569834929</v>
       </c>
       <c r="D13">
-        <v>9.627239304792495</v>
+        <v>9.626641390839854</v>
       </c>
       <c r="E13">
-        <v>17.4489785897249</v>
+        <v>17.45023564639157</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.61028769952692</v>
+        <v>44.53309098449878</v>
       </c>
       <c r="H13">
-        <v>36.54738158397235</v>
+        <v>44.65773470550346</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.49429024740144</v>
       </c>
       <c r="J13">
-        <v>25.39283733654112</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>21.53111431943855</v>
+        <v>25.38646429642286</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>21.52747749488087</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54207989520609</v>
+        <v>27.53931919014402</v>
       </c>
       <c r="C14">
-        <v>22.02142571418217</v>
+        <v>22.00800187821354</v>
       </c>
       <c r="D14">
-        <v>9.52853949646317</v>
+        <v>9.527966415539128</v>
       </c>
       <c r="E14">
-        <v>17.26422524362212</v>
+        <v>17.2655004421727</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.21211214839536</v>
+        <v>44.10527136352445</v>
       </c>
       <c r="H14">
-        <v>36.24719370804378</v>
+        <v>44.25919109123914</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.19468040544647</v>
       </c>
       <c r="J14">
-        <v>25.13527562062676</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.30601155278385</v>
+        <v>25.12904911864814</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>21.30245857059866</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.36732527203799</v>
+        <v>27.3646375342487</v>
       </c>
       <c r="C15">
-        <v>21.87879984366514</v>
+        <v>21.86550033874651</v>
       </c>
       <c r="D15">
-        <v>9.467906673418069</v>
+        <v>9.467348491969666</v>
       </c>
       <c r="E15">
-        <v>17.15080976953415</v>
+        <v>17.15209545390945</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.96824408264731</v>
+        <v>43.8430227286785</v>
       </c>
       <c r="H15">
-        <v>36.06350413784686</v>
+        <v>44.01509766837741</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.01134547896974</v>
       </c>
       <c r="J15">
-        <v>24.97705660293587</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.16780911756344</v>
+        <v>24.97091891751491</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>21.16430675019942</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.35733421498145</v>
+        <v>26.35504834523341</v>
       </c>
       <c r="C16">
-        <v>21.05549701308673</v>
+        <v>21.042899844147</v>
       </c>
       <c r="D16">
-        <v>9.117572153933114</v>
+        <v>9.117094993186067</v>
       </c>
       <c r="E16">
-        <v>16.49667924497712</v>
+        <v>16.49801620506614</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57052175139952</v>
+        <v>42.33647875907138</v>
       </c>
       <c r="H16">
-        <v>35.01321270584699</v>
+        <v>42.61608633553575</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.96309725078647</v>
       </c>
       <c r="J16">
-        <v>24.06293159250488</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.37046153338312</v>
+        <v>24.05728985845088</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>20.36723897241355</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72961036908951</v>
+        <v>25.72755796747693</v>
       </c>
       <c r="C17">
-        <v>20.54464136326825</v>
+        <v>20.53246741033912</v>
       </c>
       <c r="D17">
-        <v>8.899917021136895</v>
+        <v>8.899486078475581</v>
       </c>
       <c r="E17">
-        <v>16.09126326608679</v>
+        <v>16.09262459159388</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.71228135231843</v>
+        <v>41.40828296218342</v>
       </c>
       <c r="H17">
-        <v>34.37054939591356</v>
+        <v>41.75705838174392</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.321699035447</v>
       </c>
       <c r="J17">
-        <v>23.49503957445778</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>19.87606543838222</v>
+        <v>23.48969188574293</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>19.87300648287515</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.36538612549911</v>
+        <v>25.3634637338966</v>
       </c>
       <c r="C18">
-        <v>20.24851448424016</v>
+        <v>20.23658165639032</v>
       </c>
       <c r="D18">
-        <v>8.773657482840981</v>
+        <v>8.773251989006754</v>
       </c>
       <c r="E18">
-        <v>15.85641797920531</v>
+        <v>15.85779098959431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.21814899924134</v>
+        <v>40.87270667475435</v>
       </c>
       <c r="H18">
-        <v>34.00135867014377</v>
+        <v>41.26247461615598</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.95324093525188</v>
       </c>
       <c r="J18">
-        <v>23.16561665708657</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>19.58960147716956</v>
+        <v>23.16043485674324</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>19.5866340596692</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.24150418238504</v>
+        <v>25.23962512132816</v>
       </c>
       <c r="C19">
-        <v>20.14784150043117</v>
+        <v>20.13598996311289</v>
       </c>
       <c r="D19">
-        <v>8.730718627574623</v>
+        <v>8.730321568032991</v>
       </c>
       <c r="E19">
-        <v>15.77660537808719</v>
+        <v>15.77798196834178</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.05074198368678</v>
+        <v>40.69105699896276</v>
       </c>
       <c r="H19">
-        <v>33.87642172089867</v>
+        <v>41.09491506479216</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.82855295435672</v>
       </c>
       <c r="J19">
-        <v>23.05358553230429</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>19.49223369843538</v>
+        <v>23.04845938708385</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>19.48929686775144</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.796757112853</v>
+        <v>25.7946803116624</v>
       </c>
       <c r="C20">
-        <v>20.59925681383855</v>
+        <v>20.5870380574183</v>
       </c>
       <c r="D20">
-        <v>8.923196138315966</v>
+        <v>8.922760396160934</v>
       </c>
       <c r="E20">
-        <v>16.13458927928204</v>
+        <v>16.13594825791042</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.80368951010401</v>
+        <v>41.50726222424985</v>
       </c>
       <c r="H20">
-        <v>34.43891200168488</v>
+        <v>41.84855022227308</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.38992646913762</v>
       </c>
       <c r="J20">
-        <v>23.55577726625093</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>19.92890844440495</v>
+        <v>23.55039862190396</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>19.92583234639293</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62573587266573</v>
+        <v>27.62293986754309</v>
       </c>
       <c r="C21">
-        <v>22.08971988125267</v>
+        <v>22.07623622388558</v>
       </c>
       <c r="D21">
-        <v>9.55756635034097</v>
+        <v>9.556986041309949</v>
       </c>
       <c r="E21">
-        <v>17.31854266443994</v>
+        <v>17.3198126668765</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.32905898836437</v>
+        <v>44.23097161687228</v>
       </c>
       <c r="H21">
-        <v>36.33532659517106</v>
+        <v>44.37624602359681</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.28264339387952</v>
       </c>
       <c r="J21">
-        <v>25.21102141917495</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.37219535318499</v>
+        <v>25.204752075361</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>21.36861790172158</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.79705550174384</v>
+        <v>28.79373909324169</v>
       </c>
       <c r="C22">
-        <v>23.04722540060708</v>
+        <v>23.03288266415855</v>
       </c>
       <c r="D22">
-        <v>9.964092850462839</v>
+        <v>9.963404527429685</v>
       </c>
       <c r="E22">
-        <v>18.08079453426488</v>
+        <v>18.08197911525625</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.98010106229403</v>
+        <v>46.00158392814059</v>
       </c>
       <c r="H22">
-        <v>37.58253730895338</v>
+        <v>46.02881366677463</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.5274654368433</v>
       </c>
       <c r="J22">
-        <v>26.27196833401031</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.30064753781522</v>
+        <v>26.26507612056102</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22.29671035705818</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17387021741346</v>
+        <v>28.17083686038962</v>
       </c>
       <c r="C23">
-        <v>22.53749792821726</v>
+        <v>22.52361733497128</v>
       </c>
       <c r="D23">
-        <v>9.747782261812835</v>
+        <v>9.747153020527662</v>
       </c>
       <c r="E23">
-        <v>17.67484547597869</v>
+        <v>17.67607851826405</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.09856679767993</v>
+        <v>45.05711900269285</v>
       </c>
       <c r="H23">
-        <v>36.91594367009139</v>
+        <v>45.14646517600954</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.86214505133628</v>
       </c>
       <c r="J23">
-        <v>25.70741562327023</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>21.8062615309077</v>
+        <v>25.70086024460901</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>21.8025198042311</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76641050922913</v>
+        <v>25.76434475208888</v>
       </c>
       <c r="C24">
-        <v>20.57457277458045</v>
+        <v>20.56237428050665</v>
       </c>
       <c r="D24">
-        <v>8.912675173892653</v>
+        <v>8.91224160505085</v>
       </c>
       <c r="E24">
-        <v>16.11500712358171</v>
+        <v>16.11636717040652</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.76236616857988</v>
+        <v>41.46251981149973</v>
       </c>
       <c r="H24">
-        <v>34.40800441671005</v>
+        <v>41.80718904351711</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.35907997875351</v>
       </c>
       <c r="J24">
-        <v>23.52832693617188</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.90502510430633</v>
+        <v>23.52296229659357</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>19.90195676418001</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04657915930408</v>
+        <v>23.04539735742878</v>
       </c>
       <c r="C25">
-        <v>18.36797536054977</v>
+        <v>18.35750704589212</v>
       </c>
       <c r="D25">
-        <v>7.970395537135995</v>
+        <v>7.97013065193185</v>
       </c>
       <c r="E25">
-        <v>14.36773449608781</v>
+        <v>14.36914423853379</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.14388075133833</v>
+        <v>37.51874908770457</v>
       </c>
       <c r="H25">
-        <v>31.71939529469903</v>
+        <v>38.18545007080635</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.67592291793574</v>
       </c>
       <c r="J25">
-        <v>21.06976285334199</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>17.77244708349954</v>
+        <v>21.06556247978952</v>
       </c>
       <c r="L25">
+        <v>17.77000974049465</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91926815464454</v>
+        <v>28.26040116321176</v>
       </c>
       <c r="C2">
-        <v>16.64078256888734</v>
+        <v>21.23576442688833</v>
       </c>
       <c r="D2">
-        <v>7.234433705293168</v>
+        <v>9.435563788259795</v>
       </c>
       <c r="E2">
-        <v>13.01304233418635</v>
+        <v>8.360782008570066</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.53869776058357</v>
+        <v>2.129481922810457</v>
       </c>
       <c r="H2">
-        <v>35.48630158991383</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.7031209483118</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.530372584375507</v>
       </c>
       <c r="K2">
-        <v>19.14611832675779</v>
+        <v>25.14373181449081</v>
       </c>
       <c r="L2">
-        <v>16.11327276563841</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>20.90114819674435</v>
+      </c>
+      <c r="N2">
+        <v>21.8595836178022</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.39347212413755</v>
+        <v>26.58195952317613</v>
       </c>
       <c r="C3">
-        <v>15.41249272085495</v>
+        <v>19.91630625129125</v>
       </c>
       <c r="D3">
-        <v>6.707045380360189</v>
+        <v>9.174312592096511</v>
       </c>
       <c r="E3">
-        <v>12.04496368616332</v>
+        <v>8.26734619454249</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.46711151412826</v>
+        <v>2.147246707833327</v>
       </c>
       <c r="H3">
-        <v>33.63410802476153</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.36569422785395</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.576028070838127</v>
       </c>
       <c r="K3">
-        <v>17.76970348989586</v>
+        <v>23.72725876676711</v>
       </c>
       <c r="L3">
-        <v>14.92952083461351</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>20.01026529973468</v>
+      </c>
+      <c r="N3">
+        <v>21.52364778474965</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41264764644099</v>
+        <v>25.53684528983677</v>
       </c>
       <c r="C4">
-        <v>14.62445747487632</v>
+        <v>19.09341090825614</v>
       </c>
       <c r="D4">
-        <v>6.368285974828482</v>
+        <v>9.020406880457807</v>
       </c>
       <c r="E4">
-        <v>11.42479824559927</v>
+        <v>8.216293609354002</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.16948274768306</v>
+        <v>2.158268056560803</v>
       </c>
       <c r="H4">
-        <v>32.48596689370338</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27.54446566168481</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.604696025370283</v>
       </c>
       <c r="K4">
-        <v>16.8853350709981</v>
+        <v>22.84982993083937</v>
       </c>
       <c r="L4">
-        <v>14.17073475346064</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>19.46991056057335</v>
+      </c>
+      <c r="N4">
+        <v>21.32303057202582</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.00161427309483</v>
+        <v>25.10738667249059</v>
       </c>
       <c r="C5">
-        <v>14.29456323011044</v>
+        <v>18.75488947148057</v>
       </c>
       <c r="D5">
-        <v>6.227162203355544</v>
+        <v>8.959274967684193</v>
       </c>
       <c r="E5">
-        <v>11.16538855886976</v>
+        <v>8.196996757882019</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.63438939246862</v>
+        <v>2.162796419729148</v>
       </c>
       <c r="H5">
-        <v>32.01555758459673</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.20991189337256</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.616554740179781</v>
       </c>
       <c r="K5">
-        <v>16.5148180560098</v>
+        <v>22.49042516894724</v>
       </c>
       <c r="L5">
-        <v>13.85323611994614</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19.2514131992692</v>
+      </c>
+      <c r="N5">
+        <v>21.2425940548462</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93266988483625</v>
+        <v>25.03586543122659</v>
       </c>
       <c r="C6">
-        <v>14.23924839325999</v>
+        <v>18.69848867522447</v>
       </c>
       <c r="D6">
-        <v>6.207057715774648</v>
+        <v>8.949218595763501</v>
       </c>
       <c r="E6">
-        <v>11.12190411903173</v>
+        <v>8.193881329579455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.54516438167069</v>
+        <v>2.16355081901647</v>
       </c>
       <c r="H6">
-        <v>31.93730179018239</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.15437041197767</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.618534966726801</v>
       </c>
       <c r="K6">
-        <v>16.45267496181917</v>
+        <v>22.43063983796949</v>
       </c>
       <c r="L6">
-        <v>13.80000826723472</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>19.21523656557862</v>
+      </c>
+      <c r="N6">
+        <v>21.22931437531917</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40715057284142</v>
+        <v>25.5310676750176</v>
       </c>
       <c r="C7">
-        <v>14.62004420188183</v>
+        <v>19.08885827560908</v>
       </c>
       <c r="D7">
-        <v>6.366387960166422</v>
+        <v>9.019576070440994</v>
       </c>
       <c r="E7">
-        <v>11.42132709552929</v>
+        <v>8.216027363914243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.16229148792944</v>
+        <v>2.158328967062916</v>
       </c>
       <c r="H7">
-        <v>32.47963268595174</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>27.53995313176085</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.604855221835908</v>
       </c>
       <c r="K7">
-        <v>16.88037949326549</v>
+        <v>22.84499013445078</v>
       </c>
       <c r="L7">
-        <v>14.16648672630783</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>19.46695685962661</v>
+      </c>
+      <c r="N7">
+        <v>21.32194057328778</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.40212467224175</v>
+        <v>27.68470220254336</v>
       </c>
       <c r="C8">
-        <v>16.22413853691158</v>
+        <v>20.78343471627213</v>
       </c>
       <c r="D8">
-        <v>7.055629156321388</v>
+        <v>9.344100910328045</v>
       </c>
       <c r="E8">
-        <v>12.68446325823843</v>
+        <v>8.327203137058053</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.82979011579642</v>
+        <v>2.135589070572317</v>
       </c>
       <c r="H8">
-        <v>34.85000986730175</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.24203086243449</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.545993319242806</v>
       </c>
       <c r="K8">
-        <v>18.67951068553366</v>
+        <v>24.65694910013501</v>
       </c>
       <c r="L8">
-        <v>15.71158929700549</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>20.59258965525012</v>
+      </c>
+      <c r="N8">
+        <v>21.74251331798909</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.97947286105824</v>
+        <v>31.79682291161622</v>
       </c>
       <c r="C9">
-        <v>19.113727343056</v>
+        <v>24.01121835935567</v>
       </c>
       <c r="D9">
-        <v>8.29363034110991</v>
+        <v>10.03517890759274</v>
       </c>
       <c r="E9">
-        <v>14.9676857357729</v>
+        <v>8.599454083976319</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.85812039997716</v>
+        <v>2.091449654166031</v>
       </c>
       <c r="H9">
-        <v>39.40978371411391</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.57878300000461</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.434739883089324</v>
       </c>
       <c r="K9">
-        <v>21.90941816012094</v>
+        <v>28.1520150533954</v>
       </c>
       <c r="L9">
-        <v>18.50068182161985</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>22.85528061624413</v>
+      </c>
+      <c r="N9">
+        <v>22.61772619893954</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.42623185718134</v>
+        <v>34.84670007781812</v>
       </c>
       <c r="C10">
-        <v>21.10084420859873</v>
+        <v>26.34345664683266</v>
       </c>
       <c r="D10">
-        <v>9.141785071710268</v>
+        <v>10.58245483370299</v>
       </c>
       <c r="E10">
-        <v>16.54405895432484</v>
+        <v>8.839260267559288</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.44217819665491</v>
+        <v>2.058539439601023</v>
       </c>
       <c r="H10">
-        <v>42.71405468045973</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.03635784903834</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.354101094155927</v>
       </c>
       <c r="K10">
-        <v>24.12169102367686</v>
+        <v>30.78664243235821</v>
       </c>
       <c r="L10">
-        <v>20.42336141792166</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24.56225819991626</v>
+      </c>
+      <c r="N10">
+        <v>23.30141175558365</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.50594635151877</v>
+        <v>36.30361959839471</v>
       </c>
       <c r="C11">
-        <v>21.98077302424541</v>
+        <v>27.41588686286905</v>
       </c>
       <c r="D11">
-        <v>9.516385036256104</v>
+        <v>10.84215095692366</v>
       </c>
       <c r="E11">
-        <v>17.24382905308439</v>
+        <v>8.958892971171917</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.05513366993915</v>
+        <v>2.043243737625246</v>
       </c>
       <c r="H11">
-        <v>44.21251194966842</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.1596106048165</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.317242094693999</v>
       </c>
       <c r="K11">
-        <v>25.09883722489399</v>
+        <v>32.09848115922534</v>
       </c>
       <c r="L11">
-        <v>21.2760591561892</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25.35348423574402</v>
+      </c>
+      <c r="N11">
+        <v>23.62426026474422</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.91061874508387</v>
+        <v>36.85439357922585</v>
       </c>
       <c r="C12">
-        <v>22.31107341071235</v>
+        <v>27.83589345469358</v>
       </c>
       <c r="D12">
-        <v>9.656829710788541</v>
+        <v>10.94229173452116</v>
       </c>
       <c r="E12">
-        <v>17.50678608933239</v>
+        <v>9.005914434444563</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.66420363583496</v>
+        <v>2.037381256521995</v>
       </c>
       <c r="H12">
-        <v>44.77995850004198</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.58623937416721</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.303215185796289</v>
       </c>
       <c r="K12">
-        <v>25.46521924518215</v>
+        <v>32.59416147402422</v>
       </c>
       <c r="L12">
-        <v>21.59635234278069</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>25.65586977531232</v>
+      </c>
+      <c r="N12">
+        <v>23.74854895106392</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82364103985885</v>
+        <v>36.73579246737997</v>
       </c>
       <c r="C13">
-        <v>22.2400569834929</v>
+        <v>27.74542051297072</v>
       </c>
       <c r="D13">
-        <v>9.626641390839854</v>
+        <v>10.9206396334309</v>
       </c>
       <c r="E13">
-        <v>17.45023564639157</v>
+        <v>8.99570729656301</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.53309098449878</v>
+        <v>2.03864741308312</v>
       </c>
       <c r="H13">
-        <v>44.65773470550346</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.49429024740144</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.306240018745927</v>
       </c>
       <c r="K13">
-        <v>25.38646429642286</v>
+        <v>32.48743425462111</v>
       </c>
       <c r="L13">
-        <v>21.52747749488087</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>25.59060974305842</v>
+      </c>
+      <c r="N13">
+        <v>23.72168451402953</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.53931919014402</v>
+        <v>36.34894242495864</v>
       </c>
       <c r="C14">
-        <v>22.00800187821354</v>
+        <v>27.45043524704085</v>
       </c>
       <c r="D14">
-        <v>9.527966415539128</v>
+        <v>10.85035177744721</v>
       </c>
       <c r="E14">
-        <v>17.2655004421727</v>
+        <v>8.962725663019397</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.10527136352445</v>
+        <v>2.04276299311293</v>
       </c>
       <c r="H14">
-        <v>44.25919109123914</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.19468040544647</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.316089767169405</v>
       </c>
       <c r="K14">
-        <v>25.12904911864814</v>
+        <v>32.13927506306003</v>
       </c>
       <c r="L14">
-        <v>21.30245857059866</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25.37830168813343</v>
+      </c>
+      <c r="N14">
+        <v>23.63444261505249</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.3646375342487</v>
+        <v>36.11190704013711</v>
       </c>
       <c r="C15">
-        <v>21.86550033874651</v>
+        <v>27.26977651750075</v>
       </c>
       <c r="D15">
-        <v>9.467348491969666</v>
+        <v>10.80754175438771</v>
       </c>
       <c r="E15">
-        <v>17.15209545390945</v>
+        <v>8.942754196791141</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.8430227286785</v>
+        <v>2.045273947511053</v>
       </c>
       <c r="H15">
-        <v>44.01509766837741</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.01134547896974</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.322112535389444</v>
       </c>
       <c r="K15">
-        <v>24.97091891751491</v>
+        <v>31.92591591944992</v>
       </c>
       <c r="L15">
-        <v>21.16430675019942</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>25.24864029106179</v>
+      </c>
+      <c r="N15">
+        <v>23.58128049852321</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.35504834523341</v>
+        <v>34.75128209052247</v>
       </c>
       <c r="C16">
-        <v>21.042899844147</v>
+        <v>26.27423058445934</v>
       </c>
       <c r="D16">
-        <v>9.117094993186067</v>
+        <v>10.5657192050854</v>
       </c>
       <c r="E16">
-        <v>16.49801620506614</v>
+        <v>8.831670450401271</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.33647875907138</v>
+        <v>2.059530618654467</v>
       </c>
       <c r="H16">
-        <v>42.61608633553575</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.96309725078647</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.356502842210259</v>
       </c>
       <c r="K16">
-        <v>24.05728985845088</v>
+        <v>30.7006890973924</v>
       </c>
       <c r="L16">
-        <v>20.36723897241355</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>24.51089617938915</v>
+      </c>
+      <c r="N16">
+        <v>23.28057740217886</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.72755796747693</v>
+        <v>33.91350566252407</v>
       </c>
       <c r="C17">
-        <v>20.53246741033912</v>
+        <v>25.66755277436263</v>
       </c>
       <c r="D17">
-        <v>8.899486078475581</v>
+        <v>10.42027696117736</v>
       </c>
       <c r="E17">
-        <v>16.09262459159388</v>
+        <v>8.766354969433475</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.40828296218342</v>
+        <v>2.068178296667202</v>
       </c>
       <c r="H17">
-        <v>41.75705838174392</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.321699035447</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.377526815373744</v>
       </c>
       <c r="K17">
-        <v>23.48969188574293</v>
+        <v>29.96037517842635</v>
       </c>
       <c r="L17">
-        <v>19.87300648287515</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>24.0624755440831</v>
+      </c>
+      <c r="N17">
+        <v>23.09934726483507</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.3634637338966</v>
+        <v>33.46325271722714</v>
       </c>
       <c r="C18">
-        <v>20.23658165639032</v>
+        <v>25.31846243485354</v>
       </c>
       <c r="D18">
-        <v>8.773251989006754</v>
+        <v>10.33761380713554</v>
       </c>
       <c r="E18">
-        <v>15.85779098959431</v>
+        <v>8.729765165926317</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.87270667475435</v>
+        <v>2.073123343697763</v>
       </c>
       <c r="H18">
-        <v>41.26247461615598</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.95324093525188</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.389605804119352</v>
       </c>
       <c r="K18">
-        <v>23.16043485674324</v>
+        <v>29.57862452135886</v>
       </c>
       <c r="L18">
-        <v>19.5866340596692</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23.80588997290947</v>
+      </c>
+      <c r="N18">
+        <v>22.99619851227219</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.23962512132816</v>
+        <v>33.31252985356117</v>
       </c>
       <c r="C19">
-        <v>20.13598996311289</v>
+        <v>25.20021743301804</v>
       </c>
       <c r="D19">
-        <v>8.730321568032991</v>
+        <v>10.30978921342546</v>
       </c>
       <c r="E19">
-        <v>15.77798196834178</v>
+        <v>8.71753899954971</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.69105699896276</v>
+        <v>2.074793327680212</v>
       </c>
       <c r="H19">
-        <v>41.09491506479216</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.82855295435672</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.393694416945106</v>
       </c>
       <c r="K19">
-        <v>23.04845938708385</v>
+        <v>29.44938583673395</v>
       </c>
       <c r="L19">
-        <v>19.48929686775144</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23.71922745140754</v>
+      </c>
+      <c r="N19">
+        <v>22.96145258201947</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.7946803116624</v>
+        <v>34.00283645775007</v>
       </c>
       <c r="C20">
-        <v>20.5870380574183</v>
+        <v>25.73214380900371</v>
       </c>
       <c r="D20">
-        <v>8.922760396160934</v>
+        <v>10.43565533131832</v>
       </c>
       <c r="E20">
-        <v>16.13594825791042</v>
+        <v>8.773205379018307</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.50726222424985</v>
+        <v>2.06726087836481</v>
       </c>
       <c r="H20">
-        <v>41.84855022227308</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.38992646913762</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.375290456193119</v>
       </c>
       <c r="K20">
-        <v>23.55039862190396</v>
+        <v>30.03104147343287</v>
       </c>
       <c r="L20">
-        <v>19.92583234639293</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>24.11006862356596</v>
+      </c>
+      <c r="N20">
+        <v>23.11852457909194</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62293986754309</v>
+        <v>36.46258332134818</v>
       </c>
       <c r="C21">
-        <v>22.07623622388558</v>
+        <v>27.53707144289162</v>
       </c>
       <c r="D21">
-        <v>9.556986041309949</v>
+        <v>10.87094574130547</v>
       </c>
       <c r="E21">
-        <v>17.3198126668765</v>
+        <v>8.972364649000346</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.23097161687228</v>
+        <v>2.041556273093261</v>
       </c>
       <c r="H21">
-        <v>44.37624602359681</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.28264339387952</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.313198935963381</v>
       </c>
       <c r="K21">
-        <v>25.204752075361</v>
+        <v>32.24155650497449</v>
       </c>
       <c r="L21">
-        <v>21.36861790172158</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>25.44058030368368</v>
+      </c>
+      <c r="N21">
+        <v>23.66000942412051</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.79373909324169</v>
+        <v>38.06559678812083</v>
       </c>
       <c r="C22">
-        <v>23.03288266415855</v>
+        <v>28.76081404257453</v>
       </c>
       <c r="D22">
-        <v>9.963404527429685</v>
+        <v>11.16610530378092</v>
       </c>
       <c r="E22">
-        <v>18.08197911525625</v>
+        <v>9.112680337932796</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.00158392814059</v>
+        <v>2.024331416263606</v>
       </c>
       <c r="H22">
-        <v>46.02881366677463</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.5274654368433</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.272186788010368</v>
       </c>
       <c r="K22">
-        <v>26.26507612056102</v>
+        <v>33.68381301497701</v>
       </c>
       <c r="L22">
-        <v>22.29671035705818</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>26.32675111143634</v>
+      </c>
+      <c r="N22">
+        <v>24.0259740378208</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17083686038962</v>
+        <v>37.20995245473251</v>
       </c>
       <c r="C23">
-        <v>22.52361733497128</v>
+        <v>28.10722719472011</v>
       </c>
       <c r="D23">
-        <v>9.747153020527662</v>
+        <v>11.00748933956563</v>
       </c>
       <c r="E23">
-        <v>17.67607851826405</v>
+        <v>9.036781413431692</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.05711900269285</v>
+        <v>2.033572970069012</v>
       </c>
       <c r="H23">
-        <v>45.14646517600954</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.86214505133628</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.294132573853867</v>
       </c>
       <c r="K23">
-        <v>25.70086024460901</v>
+        <v>32.91409111339985</v>
       </c>
       <c r="L23">
-        <v>21.8025198042311</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>25.8519859161833</v>
+      </c>
+      <c r="N23">
+        <v>23.8294132351453</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.76434475208888</v>
+        <v>33.9624554648355</v>
       </c>
       <c r="C24">
-        <v>20.56237428050665</v>
+        <v>25.70294321340403</v>
       </c>
       <c r="D24">
-        <v>8.91224160505085</v>
+        <v>10.42869981827521</v>
       </c>
       <c r="E24">
-        <v>16.11636717040652</v>
+        <v>8.770105330383439</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.46251981149973</v>
+        <v>2.067675724382878</v>
       </c>
       <c r="H24">
-        <v>41.80718904351711</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.35907997875351</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.37630153583979</v>
       </c>
       <c r="K24">
-        <v>23.52296229659357</v>
+        <v>29.99909313407204</v>
       </c>
       <c r="L24">
-        <v>19.90195676418001</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24.0885480460957</v>
+      </c>
+      <c r="N24">
+        <v>23.10985129076525</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.04539735742878</v>
+        <v>30.6950059070893</v>
       </c>
       <c r="C25">
-        <v>18.35750704589212</v>
+        <v>23.1468491253223</v>
       </c>
       <c r="D25">
-        <v>7.97013065193185</v>
+        <v>9.841844917332132</v>
       </c>
       <c r="E25">
-        <v>14.36914423853379</v>
+        <v>8.519367943003973</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.51874908770457</v>
+        <v>2.103411804310617</v>
       </c>
       <c r="H25">
-        <v>38.18545007080635</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.67592291793574</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.464524075573039</v>
       </c>
       <c r="K25">
-        <v>21.06556247978952</v>
+        <v>27.21172187670134</v>
       </c>
       <c r="L25">
-        <v>17.77000974049465</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>22.23652646175864</v>
+      </c>
+      <c r="N25">
+        <v>22.37465817800009</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.26040116321176</v>
+        <v>13.50189247472221</v>
       </c>
       <c r="C2">
-        <v>21.23576442688833</v>
+        <v>8.643291665792001</v>
       </c>
       <c r="D2">
-        <v>9.435563788259795</v>
+        <v>12.15546611109326</v>
       </c>
       <c r="E2">
-        <v>8.360782008570066</v>
+        <v>13.15204615554229</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.129481922810457</v>
+        <v>2.105399948593951</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.77631606276806</v>
       </c>
       <c r="J2">
-        <v>4.530372584375507</v>
+        <v>5.897913586621314</v>
       </c>
       <c r="K2">
-        <v>25.14373181449081</v>
+        <v>12.2526442388199</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.90114819674435</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>21.8595836178022</v>
+        <v>12.80303841095264</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>18.50242530801237</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.58195952317613</v>
+        <v>12.58764376036784</v>
       </c>
       <c r="C3">
-        <v>19.91630625129125</v>
+        <v>8.048846855308199</v>
       </c>
       <c r="D3">
-        <v>9.174312592096511</v>
+        <v>11.64874286972092</v>
       </c>
       <c r="E3">
-        <v>8.26734619454249</v>
+        <v>12.61375102488372</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.147246707833327</v>
+        <v>2.110894567920929</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.84853222528833</v>
       </c>
       <c r="J3">
-        <v>4.576028070838127</v>
+        <v>5.806989923153552</v>
       </c>
       <c r="K3">
-        <v>23.72725876676711</v>
+        <v>11.44978088664719</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.01026529973468</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>21.52364778474965</v>
+        <v>13.0176922304837</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.39913119568817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.53684528983677</v>
+        <v>11.99347144057413</v>
       </c>
       <c r="C4">
-        <v>19.09341090825614</v>
+        <v>7.663100201004585</v>
       </c>
       <c r="D4">
-        <v>9.020406880457807</v>
+        <v>11.33418240034429</v>
       </c>
       <c r="E4">
-        <v>8.216293609354002</v>
+        <v>12.28025147556818</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.158268056560803</v>
+        <v>2.114372013241328</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.90458209345866</v>
       </c>
       <c r="J4">
-        <v>4.604696025370283</v>
+        <v>5.753639915311918</v>
       </c>
       <c r="K4">
-        <v>22.84982993083937</v>
+        <v>10.92878323145615</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.46991056057335</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>21.32303057202582</v>
+        <v>13.15222631303047</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>18.35029786897699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.10738667249059</v>
+        <v>11.74303524427908</v>
       </c>
       <c r="C5">
-        <v>18.75488947148057</v>
+        <v>7.500645749512478</v>
       </c>
       <c r="D5">
-        <v>8.959274967684193</v>
+        <v>11.20531995735925</v>
       </c>
       <c r="E5">
-        <v>8.196996757882019</v>
+        <v>12.143793249346</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.162796419729148</v>
+        <v>2.115815845741555</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.93024500311223</v>
       </c>
       <c r="J5">
-        <v>4.616554740179781</v>
+        <v>5.732529802798505</v>
       </c>
       <c r="K5">
-        <v>22.49042516894724</v>
+        <v>10.70939264632326</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.2514131992692</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>21.2425940548462</v>
+        <v>13.20776448487434</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>18.33395006613358</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.03586543122659</v>
+        <v>11.70094729376748</v>
       </c>
       <c r="C6">
-        <v>18.69848867522447</v>
+        <v>7.473351483973754</v>
       </c>
       <c r="D6">
-        <v>8.949218595763501</v>
+        <v>11.18388743694334</v>
       </c>
       <c r="E6">
-        <v>8.193881329579455</v>
+        <v>12.12110711682643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.16355081901647</v>
+        <v>2.116057227185077</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.93467326467714</v>
       </c>
       <c r="J6">
-        <v>4.618534966726801</v>
+        <v>5.729062756229811</v>
       </c>
       <c r="K6">
-        <v>22.43063983796949</v>
+        <v>10.67253463543463</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.21523656557862</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>21.22931437531917</v>
+        <v>13.21703045807931</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>18.33144657610499</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.5310676750176</v>
+        <v>11.99012767179196</v>
       </c>
       <c r="C7">
-        <v>19.08885827560908</v>
+        <v>7.66093063214132</v>
       </c>
       <c r="D7">
-        <v>9.019576070440994</v>
+        <v>11.33244699408969</v>
       </c>
       <c r="E7">
-        <v>8.216027363914243</v>
+        <v>12.27841312262244</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.158328967062916</v>
+        <v>2.11439137612534</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.90491692418549</v>
       </c>
       <c r="J7">
-        <v>4.604855221835908</v>
+        <v>5.753352655308095</v>
       </c>
       <c r="K7">
-        <v>22.84499013445078</v>
+        <v>10.92585315500762</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.46695685962661</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>21.32194057328778</v>
+        <v>13.15297239331776</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>18.35006317133971</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.68470220254336</v>
+        <v>13.19343880930274</v>
       </c>
       <c r="C8">
-        <v>20.78343471627213</v>
+        <v>8.442610042632611</v>
       </c>
       <c r="D8">
-        <v>9.344100910328045</v>
+        <v>11.98156490994638</v>
       </c>
       <c r="E8">
-        <v>8.327203137058053</v>
+        <v>12.96717217677071</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.135589070572317</v>
+        <v>2.107273373613124</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.79871131796938</v>
       </c>
       <c r="J8">
-        <v>4.545993319242806</v>
+        <v>5.866053703493943</v>
       </c>
       <c r="K8">
-        <v>24.65694910013501</v>
+        <v>11.98161626807558</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.59258965525012</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>21.74251331798909</v>
+        <v>12.87649962187917</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.463712716712</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.79682291161622</v>
+        <v>15.29518386183537</v>
       </c>
       <c r="C9">
-        <v>24.01121835935567</v>
+        <v>9.812690664038231</v>
       </c>
       <c r="D9">
-        <v>10.03517890759274</v>
+        <v>13.2202160744521</v>
       </c>
       <c r="E9">
-        <v>8.599454083976319</v>
+        <v>14.28669251977563</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.091449654166031</v>
+        <v>2.094106332295581</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>15.68901596924706</v>
       </c>
       <c r="J9">
-        <v>4.434739883089324</v>
+        <v>6.106353681552426</v>
       </c>
       <c r="K9">
-        <v>28.1520150533954</v>
+        <v>13.83112277046963</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.85528061624413</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>22.61772619893954</v>
+        <v>12.35477083927977</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>18.80731506925451</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.84670007781812</v>
+        <v>16.68560403210591</v>
       </c>
       <c r="C10">
-        <v>26.34345664683266</v>
+        <v>10.72277569381873</v>
       </c>
       <c r="D10">
-        <v>10.58245483370299</v>
+        <v>14.10153390352874</v>
       </c>
       <c r="E10">
-        <v>8.839260267559288</v>
+        <v>15.22885392557219</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.058539439601023</v>
+        <v>2.084868029273843</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.67657408498942</v>
       </c>
       <c r="J10">
-        <v>4.354101094155927</v>
+        <v>6.294163159134538</v>
       </c>
       <c r="K10">
-        <v>30.78664243235821</v>
+        <v>15.05788550000084</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.56225819991626</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>23.30141175558365</v>
+        <v>11.98202200250861</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>19.13982475411964</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.30361959839471</v>
+        <v>17.28555327475121</v>
       </c>
       <c r="C11">
-        <v>27.41588686286905</v>
+        <v>11.11646494959332</v>
       </c>
       <c r="D11">
-        <v>10.84215095692366</v>
+        <v>14.49502180547901</v>
       </c>
       <c r="E11">
-        <v>8.958892971171917</v>
+        <v>15.65025326450659</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.043243737625246</v>
+        <v>2.080748742407915</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.6875243953972</v>
       </c>
       <c r="J11">
-        <v>4.317242094693999</v>
+        <v>6.381945020965471</v>
       </c>
       <c r="K11">
-        <v>32.09848115922534</v>
+        <v>15.58792675586243</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.35348423574402</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>23.62426026474422</v>
+        <v>11.81429445599918</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>19.30976168115926</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.85439357922585</v>
+        <v>17.50812311140948</v>
       </c>
       <c r="C12">
-        <v>27.83589345469358</v>
+        <v>11.26267743361568</v>
       </c>
       <c r="D12">
-        <v>10.94229173452116</v>
+        <v>14.64288380308214</v>
       </c>
       <c r="E12">
-        <v>9.005914434444563</v>
+        <v>15.8087134711749</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.037381256521995</v>
+        <v>2.079199866542851</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.69421375946555</v>
       </c>
       <c r="J12">
-        <v>4.303215185796289</v>
+        <v>6.415515223765898</v>
       </c>
       <c r="K12">
-        <v>32.59416147402422</v>
+        <v>15.7846662650923</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.65586977531232</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>23.74854895106392</v>
+        <v>11.75100512083741</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>19.3768966952834</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.73579246737997</v>
+        <v>17.46039304831709</v>
       </c>
       <c r="C13">
-        <v>27.74542051297072</v>
+        <v>11.2313147073442</v>
       </c>
       <c r="D13">
-        <v>10.9206396334309</v>
+        <v>14.61109091447448</v>
       </c>
       <c r="E13">
-        <v>8.99570729656301</v>
+        <v>15.77463684983191</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.03864741308312</v>
+        <v>2.079532971158016</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.6926575035904</v>
       </c>
       <c r="J13">
-        <v>4.306240018745927</v>
+        <v>6.408270759878923</v>
       </c>
       <c r="K13">
-        <v>32.48743425462111</v>
+        <v>15.74247081472807</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.59060974305842</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>23.72168451402953</v>
+        <v>11.76462623213673</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>19.36231264587378</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.34894242495864</v>
+        <v>17.30395640239677</v>
       </c>
       <c r="C14">
-        <v>27.45043524704085</v>
+        <v>11.12855113266915</v>
       </c>
       <c r="D14">
-        <v>10.85035177744721</v>
+        <v>14.50720977580014</v>
       </c>
       <c r="E14">
-        <v>8.962725663019397</v>
+        <v>15.66331260163606</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.04276299311293</v>
+        <v>2.080621100598583</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.68802287749217</v>
       </c>
       <c r="J14">
-        <v>4.316089767169405</v>
+        <v>6.384700308468336</v>
       </c>
       <c r="K14">
-        <v>32.13927506306003</v>
+        <v>15.60419199064396</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.37830168813343</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>23.63444261505249</v>
+        <v>11.80908331808811</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>19.31522858357077</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.11190704013711</v>
+        <v>17.20753499851915</v>
       </c>
       <c r="C15">
-        <v>27.26977651750075</v>
+        <v>11.06523342139186</v>
       </c>
       <c r="D15">
-        <v>10.80754175438771</v>
+        <v>14.44342878822661</v>
       </c>
       <c r="E15">
-        <v>8.942754196791141</v>
+        <v>15.59497612277266</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.045273947511053</v>
+        <v>2.081289015157821</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.68551981038816</v>
       </c>
       <c r="J15">
-        <v>4.322112535389444</v>
+        <v>6.370305363664613</v>
       </c>
       <c r="K15">
-        <v>31.92591591944992</v>
+        <v>15.51897613007487</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.24864029106179</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>23.58128049852321</v>
+        <v>11.83634272829253</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>19.28675358664336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.75128209052247</v>
+        <v>16.64574617531008</v>
       </c>
       <c r="C16">
-        <v>26.27423058445934</v>
+        <v>10.69664280096313</v>
       </c>
       <c r="D16">
-        <v>10.5657192050854</v>
+        <v>14.07566219301735</v>
       </c>
       <c r="E16">
-        <v>8.831670450401271</v>
+        <v>15.20116238754918</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.059530618654467</v>
+        <v>2.085138828924034</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.6762057936925</v>
       </c>
       <c r="J16">
-        <v>4.356502842210259</v>
+        <v>6.288472885823611</v>
       </c>
       <c r="K16">
-        <v>30.7006890973924</v>
+        <v>15.02268672659232</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.51089617938915</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>23.28057740217886</v>
+        <v>11.99301711505761</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>19.12910325114745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.91350566252407</v>
+        <v>16.2928124063871</v>
       </c>
       <c r="C17">
-        <v>25.66755277436263</v>
+        <v>10.46535784255704</v>
       </c>
       <c r="D17">
-        <v>10.42027696117736</v>
+        <v>13.84808698812259</v>
       </c>
       <c r="E17">
-        <v>8.766354969433475</v>
+        <v>14.95766398089331</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.068178296667202</v>
+        <v>2.087521225600036</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>15.6748547604244</v>
       </c>
       <c r="J17">
-        <v>4.377526815373744</v>
+        <v>6.238865995451617</v>
       </c>
       <c r="K17">
-        <v>29.96037517842635</v>
+        <v>14.71108972540758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.0624755440831</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>23.09934726483507</v>
+        <v>12.08957568664123</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>19.03724426460772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.46325271722714</v>
+        <v>16.08674556314381</v>
       </c>
       <c r="C18">
-        <v>25.31846243485354</v>
+        <v>10.33041363987336</v>
       </c>
       <c r="D18">
-        <v>10.33761380713554</v>
+        <v>13.71649579505151</v>
       </c>
       <c r="E18">
-        <v>8.729765165926317</v>
+        <v>14.81693634585435</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.073123343697763</v>
+        <v>2.088899415933575</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>15.67563165218314</v>
       </c>
       <c r="J18">
-        <v>4.389605804119352</v>
+        <v>6.210554711786632</v>
       </c>
       <c r="K18">
-        <v>29.57862452135886</v>
+        <v>14.52922662717735</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.80588997290947</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>22.99619851227219</v>
+        <v>12.14528908111706</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>18.98616174551977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.31252985356117</v>
+        <v>16.01644591022647</v>
       </c>
       <c r="C19">
-        <v>25.20021743301804</v>
+        <v>10.28439337403847</v>
       </c>
       <c r="D19">
-        <v>10.30978921342546</v>
+        <v>13.67182436385109</v>
       </c>
       <c r="E19">
-        <v>8.71753899954971</v>
+        <v>14.76917545022751</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.074793327680212</v>
+        <v>2.089367432415835</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>15.67615695181739</v>
       </c>
       <c r="J19">
-        <v>4.393694416945106</v>
+        <v>6.201007276719189</v>
       </c>
       <c r="K19">
-        <v>29.44938583673395</v>
+        <v>14.46719578797877</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.71922745140754</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>22.96145258201947</v>
+        <v>12.16418395384294</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>18.96916400374874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.00283645775007</v>
+        <v>16.33069994815529</v>
       </c>
       <c r="C20">
-        <v>25.73214380900371</v>
+        <v>10.49017637090571</v>
       </c>
       <c r="D20">
-        <v>10.43565533131832</v>
+        <v>13.8723853933218</v>
       </c>
       <c r="E20">
-        <v>8.773205379018307</v>
+        <v>14.98365518406432</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.06726087836481</v>
+        <v>2.087266804684731</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>15.67483664483234</v>
       </c>
       <c r="J20">
-        <v>4.375290456193119</v>
+        <v>6.244123895323044</v>
       </c>
       <c r="K20">
-        <v>30.03104147343287</v>
+        <v>14.74453268946886</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.11006862356596</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>23.11852457909194</v>
+        <v>12.07927897532842</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>19.04684072913771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.46258332134818</v>
+        <v>17.35003044212182</v>
       </c>
       <c r="C21">
-        <v>27.53707144289162</v>
+        <v>11.15881272490264</v>
       </c>
       <c r="D21">
-        <v>10.87094574130547</v>
+        <v>14.53775371568927</v>
       </c>
       <c r="E21">
-        <v>8.972364649000346</v>
+        <v>15.69604201349188</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.041556273093261</v>
+        <v>2.080301199862657</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.6893139241264</v>
       </c>
       <c r="J21">
-        <v>4.313198935963381</v>
+        <v>6.391614648673458</v>
       </c>
       <c r="K21">
-        <v>32.24155650497449</v>
+        <v>15.64491528453372</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.44058030368368</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>23.66000942412051</v>
+        <v>11.79601939865604</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>19.32898200532562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.06559678812083</v>
+        <v>17.98933677765638</v>
       </c>
       <c r="C22">
-        <v>28.76081404257453</v>
+        <v>11.57910804899308</v>
       </c>
       <c r="D22">
-        <v>11.16610530378092</v>
+        <v>14.96592501300279</v>
       </c>
       <c r="E22">
-        <v>9.112680337932796</v>
+        <v>16.15510910632118</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.024331416263606</v>
+        <v>2.07581244303244</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.71367062284744</v>
       </c>
       <c r="J22">
-        <v>4.272186788010368</v>
+        <v>6.489923934636277</v>
       </c>
       <c r="K22">
-        <v>33.68381301497701</v>
+        <v>16.21022203946541</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.32675111143634</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>24.0259740378208</v>
+        <v>11.61218695153736</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>19.52964567268225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.20995245473251</v>
+        <v>17.65056504660411</v>
       </c>
       <c r="C23">
-        <v>28.10722719472011</v>
+        <v>11.35629845203468</v>
       </c>
       <c r="D23">
-        <v>11.00748933956563</v>
+        <v>14.7380334364354</v>
       </c>
       <c r="E23">
-        <v>9.036781413431692</v>
+        <v>15.91071381247205</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.033572970069012</v>
+        <v>2.078202688337848</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.69925623764473</v>
       </c>
       <c r="J23">
-        <v>4.294132573853867</v>
+        <v>6.437281513794963</v>
       </c>
       <c r="K23">
-        <v>32.91409111339985</v>
+        <v>15.91060629880575</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.8519859161833</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>23.8294132351453</v>
+        <v>11.71019692995199</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>19.42102768252535</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.9624554648355</v>
+        <v>16.31358083965234</v>
       </c>
       <c r="C24">
-        <v>25.70294321340403</v>
+        <v>10.47896207105939</v>
       </c>
       <c r="D24">
-        <v>10.42869981827521</v>
+        <v>13.86140243060487</v>
       </c>
       <c r="E24">
-        <v>8.770105330383439</v>
+        <v>14.97190685087518</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.067675724382878</v>
+        <v>2.087381801774834</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>15.67484000735129</v>
       </c>
       <c r="J24">
-        <v>4.37630153583979</v>
+        <v>6.241746149089372</v>
       </c>
       <c r="K24">
-        <v>29.99909313407204</v>
+        <v>14.72942160731924</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.0885480460957</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>23.10985129076525</v>
+        <v>12.08393349083129</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>19.04249679128239</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.6950059070893</v>
+        <v>14.75386380969977</v>
       </c>
       <c r="C25">
-        <v>23.1468491253223</v>
+        <v>9.459200207460066</v>
       </c>
       <c r="D25">
-        <v>9.841844917332132</v>
+        <v>12.88968945728552</v>
       </c>
       <c r="E25">
-        <v>8.519367943003973</v>
+        <v>13.93400675383346</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.103411804310617</v>
+        <v>2.097588318576972</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>15.70732225105611</v>
       </c>
       <c r="J25">
-        <v>4.464524075573039</v>
+        <v>6.039331695291385</v>
       </c>
       <c r="K25">
-        <v>27.21172187670134</v>
+        <v>13.35417587024769</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.23652646175864</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>22.37465817800009</v>
+        <v>12.49391307805799</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.70074963250102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50189247472221</v>
+        <v>11.57779315203136</v>
       </c>
       <c r="C2">
-        <v>8.643291665792001</v>
+        <v>7.153282327285898</v>
       </c>
       <c r="D2">
-        <v>12.15546611109326</v>
+        <v>15.01852548308429</v>
       </c>
       <c r="E2">
-        <v>13.15204615554229</v>
+        <v>16.43938439622382</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.105399948593951</v>
+        <v>3.678728604813291</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.77631606276806</v>
+        <v>24.68942862365345</v>
       </c>
       <c r="J2">
-        <v>5.897913586621314</v>
+        <v>9.389190241959341</v>
       </c>
       <c r="K2">
-        <v>12.2526442388199</v>
+        <v>12.10415100787166</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.80303841095264</v>
+        <v>19.89365978858281</v>
       </c>
       <c r="O2">
-        <v>18.50242530801237</v>
+        <v>27.91304022677859</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58764376036784</v>
+        <v>11.33747745152123</v>
       </c>
       <c r="C3">
-        <v>8.048846855308199</v>
+        <v>6.991311992468935</v>
       </c>
       <c r="D3">
-        <v>11.64874286972092</v>
+        <v>14.95722939437158</v>
       </c>
       <c r="E3">
-        <v>12.61375102488372</v>
+        <v>16.37832576323501</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.110894567920929</v>
+        <v>3.680809086434632</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.84853222528833</v>
+        <v>24.76923467071082</v>
       </c>
       <c r="J3">
-        <v>5.806989923153552</v>
+        <v>9.396768550694265</v>
       </c>
       <c r="K3">
-        <v>11.44978088664719</v>
+        <v>11.9476152764383</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.0176922304837</v>
+        <v>19.95638184321639</v>
       </c>
       <c r="O3">
-        <v>18.39913119568817</v>
+        <v>27.97775780621648</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.99347144057413</v>
+        <v>11.18965504868252</v>
       </c>
       <c r="C4">
-        <v>7.663100201004585</v>
+        <v>6.891459503336968</v>
       </c>
       <c r="D4">
-        <v>11.33418240034429</v>
+        <v>14.9228615470779</v>
       </c>
       <c r="E4">
-        <v>12.28025147556818</v>
+        <v>16.34444537351779</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114372013241328</v>
+        <v>3.682154500080106</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.90458209345866</v>
+        <v>24.82261680847136</v>
       </c>
       <c r="J4">
-        <v>5.753639915311918</v>
+        <v>9.402827071894752</v>
       </c>
       <c r="K4">
-        <v>10.92878323145615</v>
+        <v>11.85278262364351</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.15222631303047</v>
+        <v>19.99665944274593</v>
       </c>
       <c r="O4">
-        <v>18.35029786897699</v>
+        <v>28.02302374536799</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.74303524427908</v>
+        <v>11.12943650631922</v>
       </c>
       <c r="C5">
-        <v>7.500645749512478</v>
+        <v>6.850728562821762</v>
       </c>
       <c r="D5">
-        <v>11.20531995735925</v>
+        <v>14.9096889192517</v>
       </c>
       <c r="E5">
-        <v>12.143793249346</v>
+        <v>16.33155681974135</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.115815845741555</v>
+        <v>3.682719918455314</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.93024500311223</v>
+        <v>24.84547078565421</v>
       </c>
       <c r="J5">
-        <v>5.732529802798505</v>
+        <v>9.405649603452352</v>
       </c>
       <c r="K5">
-        <v>10.70939264632326</v>
+        <v>11.81450423532104</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.20776448487434</v>
+        <v>20.01351832565</v>
       </c>
       <c r="O5">
-        <v>18.33395006613358</v>
+        <v>28.042857771399</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70094729376748</v>
+        <v>11.11944108813534</v>
       </c>
       <c r="C6">
-        <v>7.473351483973754</v>
+        <v>6.843964605607996</v>
       </c>
       <c r="D6">
-        <v>11.18388743694334</v>
+        <v>14.9075521910359</v>
       </c>
       <c r="E6">
-        <v>12.12110711682643</v>
+        <v>16.32947240652293</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.116057227185077</v>
+        <v>3.682814843262408</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.93467326467714</v>
+        <v>24.84933208987644</v>
       </c>
       <c r="J6">
-        <v>5.729062756229811</v>
+        <v>9.406139646626542</v>
       </c>
       <c r="K6">
-        <v>10.67253463543463</v>
+        <v>11.80817157729564</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.21703045807931</v>
+        <v>20.01634467336626</v>
       </c>
       <c r="O6">
-        <v>18.33144657610499</v>
+        <v>28.04623493712883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99012767179196</v>
+        <v>11.1888427209865</v>
       </c>
       <c r="C7">
-        <v>7.66093063214132</v>
+        <v>6.89091027277922</v>
       </c>
       <c r="D7">
-        <v>11.33244699408969</v>
+        <v>14.92268051206498</v>
       </c>
       <c r="E7">
-        <v>12.27841312262244</v>
+        <v>16.34426782439266</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.11439137612534</v>
+        <v>3.682162055991837</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.90491692418549</v>
+        <v>24.82292057177871</v>
       </c>
       <c r="J7">
-        <v>5.753352655308095</v>
+        <v>9.40286370543784</v>
       </c>
       <c r="K7">
-        <v>10.92585315500762</v>
+        <v>11.85226484471505</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.15297239331776</v>
+        <v>19.99688500220175</v>
       </c>
       <c r="O7">
-        <v>18.35006317133971</v>
+        <v>28.02328561841656</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19343880930274</v>
+        <v>11.49503968413103</v>
       </c>
       <c r="C8">
-        <v>8.442610042632611</v>
+        <v>7.097554298995037</v>
       </c>
       <c r="D8">
-        <v>11.98156490994638</v>
+        <v>14.99671903506671</v>
       </c>
       <c r="E8">
-        <v>12.96717217677071</v>
+        <v>16.41758863799294</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.107273373613124</v>
+        <v>3.679431876734613</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.79871131796938</v>
+        <v>24.71603572348615</v>
       </c>
       <c r="J8">
-        <v>5.866053703493943</v>
+        <v>9.391511711586102</v>
       </c>
       <c r="K8">
-        <v>11.98161626807558</v>
+        <v>12.0499385295201</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.87649962187917</v>
+        <v>19.91492064033809</v>
       </c>
       <c r="O8">
-        <v>18.463712716712</v>
+        <v>27.93420581195162</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29518386183537</v>
+        <v>12.08964566269534</v>
       </c>
       <c r="C9">
-        <v>9.812690664038231</v>
+        <v>7.497027546906139</v>
       </c>
       <c r="D9">
-        <v>13.2202160744521</v>
+        <v>15.16732062061111</v>
       </c>
       <c r="E9">
-        <v>14.28669251977563</v>
+        <v>16.58951274092629</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.094106332295581</v>
+        <v>3.674614966408677</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.68901596924706</v>
+        <v>24.54125258366309</v>
       </c>
       <c r="J9">
-        <v>6.106353681552426</v>
+        <v>9.380389340527689</v>
       </c>
       <c r="K9">
-        <v>13.83112277046963</v>
+        <v>12.44576324200518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.35477083927977</v>
+        <v>19.76813809661353</v>
       </c>
       <c r="O9">
-        <v>18.80731506925451</v>
+        <v>27.80349879447746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.68560403210591</v>
+        <v>12.51817657042624</v>
       </c>
       <c r="C10">
-        <v>10.72277569381873</v>
+        <v>7.78376031433471</v>
       </c>
       <c r="D10">
-        <v>14.10153390352874</v>
+        <v>15.30739179142947</v>
       </c>
       <c r="E10">
-        <v>15.22885392557219</v>
+        <v>16.73224179037228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.084868029273843</v>
+        <v>3.671399825848347</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.67657408498942</v>
+        <v>24.43414276371128</v>
       </c>
       <c r="J10">
-        <v>6.294163159134538</v>
+        <v>9.3789882864462</v>
       </c>
       <c r="K10">
-        <v>15.05788550000084</v>
+        <v>12.73891912491138</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.98202200250861</v>
+        <v>19.66871080711513</v>
       </c>
       <c r="O10">
-        <v>19.13982475411964</v>
+        <v>27.73441584603839</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28555327475121</v>
+        <v>12.71038579108592</v>
       </c>
       <c r="C11">
-        <v>11.11646494959332</v>
+        <v>7.912106192313038</v>
       </c>
       <c r="D11">
-        <v>14.49502180547901</v>
+        <v>15.37413067701567</v>
       </c>
       <c r="E11">
-        <v>15.65025326450659</v>
+        <v>16.80055919200647</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.080748742407915</v>
+        <v>3.670006749443488</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.6875243953972</v>
+        <v>24.39005786070342</v>
       </c>
       <c r="J11">
-        <v>6.381945020965471</v>
+        <v>9.379815125561159</v>
       </c>
       <c r="K11">
-        <v>15.58792675586243</v>
+        <v>12.87223802954111</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.81429445599918</v>
+        <v>19.62528649794849</v>
       </c>
       <c r="O11">
-        <v>19.30976168115926</v>
+        <v>27.70886459467104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50812311140948</v>
+        <v>12.78270572064729</v>
       </c>
       <c r="C12">
-        <v>11.26267743361568</v>
+        <v>7.960358951437732</v>
       </c>
       <c r="D12">
-        <v>14.64288380308214</v>
+        <v>15.39982059298566</v>
       </c>
       <c r="E12">
-        <v>15.8087134711749</v>
+        <v>16.82690011096179</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.079199866542851</v>
+        <v>3.669489166169251</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.69421375946555</v>
+        <v>24.37403261986602</v>
       </c>
       <c r="J12">
-        <v>6.415515223765898</v>
+        <v>9.380338096043266</v>
       </c>
       <c r="K12">
-        <v>15.7846662650923</v>
+        <v>12.92267156888187</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.75100512083741</v>
+        <v>19.609101072157</v>
       </c>
       <c r="O12">
-        <v>19.3768966952834</v>
+        <v>27.70003542826225</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46039304831709</v>
+        <v>12.767152143151</v>
       </c>
       <c r="C13">
-        <v>11.2313147073442</v>
+        <v>7.949983114917305</v>
       </c>
       <c r="D13">
-        <v>14.61109091447448</v>
+        <v>15.39426952507841</v>
       </c>
       <c r="E13">
-        <v>15.77463684983191</v>
+        <v>16.82120646828836</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.079532971158016</v>
+        <v>3.669600195502775</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.6926575035904</v>
+        <v>24.37745417488983</v>
       </c>
       <c r="J13">
-        <v>6.408270759878923</v>
+        <v>9.380216143099592</v>
       </c>
       <c r="K13">
-        <v>15.74247081472807</v>
+        <v>12.91181280808276</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.76462623213673</v>
+        <v>19.61257541954625</v>
       </c>
       <c r="O13">
-        <v>19.36231264587378</v>
+        <v>27.70189927245898</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30395640239677</v>
+        <v>12.71634532525298</v>
       </c>
       <c r="C14">
-        <v>11.12855113266915</v>
+        <v>7.916083236419416</v>
       </c>
       <c r="D14">
-        <v>14.50720977580014</v>
+        <v>15.37623593697422</v>
       </c>
       <c r="E14">
-        <v>15.66331260163606</v>
+        <v>16.80271694265236</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.080621100598583</v>
+        <v>3.669963968541105</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.68802287749217</v>
+        <v>24.38872604291443</v>
       </c>
       <c r="J14">
-        <v>6.384700308468336</v>
+        <v>9.379853948910267</v>
       </c>
       <c r="K14">
-        <v>15.60419199064396</v>
+        <v>12.87638851618242</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.80908331808811</v>
+        <v>19.62394974118814</v>
       </c>
       <c r="O14">
-        <v>19.31522858357077</v>
+        <v>27.70812123897902</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20753499851915</v>
+        <v>12.68516197696608</v>
       </c>
       <c r="C15">
-        <v>11.06523342139186</v>
+        <v>7.89527174744117</v>
       </c>
       <c r="D15">
-        <v>14.44342878822661</v>
+        <v>15.3652436805584</v>
       </c>
       <c r="E15">
-        <v>15.59497612277266</v>
+        <v>16.79145234889781</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.081289015157821</v>
+        <v>3.670188083608868</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.68551981038816</v>
+        <v>24.39571752449794</v>
       </c>
       <c r="J15">
-        <v>6.370305363664613</v>
+        <v>9.379659403168365</v>
       </c>
       <c r="K15">
-        <v>15.51897613007487</v>
+        <v>12.85468207668353</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.83634272829253</v>
+        <v>19.63095045876264</v>
       </c>
       <c r="O15">
-        <v>19.28675358664336</v>
+        <v>27.71204266423234</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.64574617531008</v>
+        <v>12.50555395645498</v>
       </c>
       <c r="C16">
-        <v>10.69664280096313</v>
+        <v>7.775326326465285</v>
       </c>
       <c r="D16">
-        <v>14.07566219301735</v>
+        <v>15.30308958737408</v>
       </c>
       <c r="E16">
-        <v>15.20116238754918</v>
+        <v>16.72784387344404</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.085138828924034</v>
+        <v>3.671492261001336</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.6762057936925</v>
+        <v>24.43711731502187</v>
       </c>
       <c r="J16">
-        <v>6.288472885823611</v>
+        <v>9.37896365742276</v>
       </c>
       <c r="K16">
-        <v>15.02268672659232</v>
+        <v>12.73020169114224</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.99301711505761</v>
+        <v>19.6715849166391</v>
       </c>
       <c r="O16">
-        <v>19.12910325114745</v>
+        <v>27.73620405286695</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.2928124063871</v>
+        <v>12.39461741549521</v>
       </c>
       <c r="C17">
-        <v>10.46535784255704</v>
+        <v>7.701172753461023</v>
       </c>
       <c r="D17">
-        <v>13.84808698812259</v>
+        <v>15.26572172952874</v>
       </c>
       <c r="E17">
-        <v>14.95766398089331</v>
+        <v>16.68967853785173</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.087521225600036</v>
+        <v>3.672310097970959</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.6748547604244</v>
+        <v>24.46370424191061</v>
       </c>
       <c r="J17">
-        <v>6.238865995451617</v>
+        <v>9.378911396314068</v>
       </c>
       <c r="K17">
-        <v>14.71108972540758</v>
+        <v>12.65379402880807</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.08957568664123</v>
+        <v>19.69697443246382</v>
       </c>
       <c r="O17">
-        <v>19.03724426460772</v>
+        <v>27.75253230613349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08674556314381</v>
+        <v>12.3305565987086</v>
       </c>
       <c r="C18">
-        <v>10.33041363987336</v>
+        <v>7.65832751230931</v>
       </c>
       <c r="D18">
-        <v>13.71649579505151</v>
+        <v>15.24451402618721</v>
       </c>
       <c r="E18">
-        <v>14.81693634585435</v>
+        <v>16.66804691665684</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.088899415933575</v>
+        <v>3.672787041502346</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.67563165218314</v>
+        <v>24.47943297705609</v>
       </c>
       <c r="J18">
-        <v>6.210554711786632</v>
+        <v>9.379019200012168</v>
       </c>
       <c r="K18">
-        <v>14.52922662717735</v>
+        <v>12.60984535021059</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.14528908111706</v>
+        <v>19.71174784112754</v>
       </c>
       <c r="O18">
-        <v>18.98616174551977</v>
+        <v>27.76247677430086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.01644591022647</v>
+        <v>12.30882553606244</v>
       </c>
       <c r="C19">
-        <v>10.28439337403847</v>
+        <v>7.643789051410711</v>
       </c>
       <c r="D19">
-        <v>13.67182436385109</v>
+        <v>15.23738296523033</v>
       </c>
       <c r="E19">
-        <v>14.76917545022751</v>
+        <v>16.66077829094339</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.089367432415835</v>
+        <v>3.672949652101489</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.67615695181739</v>
+        <v>24.48483340197684</v>
       </c>
       <c r="J19">
-        <v>6.201007276719189</v>
+        <v>9.37907939787692</v>
       </c>
       <c r="K19">
-        <v>14.46719578797877</v>
+        <v>12.59496632308305</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.16418395384294</v>
+        <v>19.71677910420028</v>
       </c>
       <c r="O19">
-        <v>18.96916400374874</v>
+        <v>27.76593870257824</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33069994815529</v>
+        <v>12.40645353107962</v>
       </c>
       <c r="C20">
-        <v>10.49017637090571</v>
+        <v>7.709086975062027</v>
       </c>
       <c r="D20">
-        <v>13.8723853933218</v>
+        <v>15.26967019431396</v>
       </c>
       <c r="E20">
-        <v>14.98365518406432</v>
+        <v>16.69370829571996</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.087266804684731</v>
+        <v>3.672222360778834</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.67483664483234</v>
+        <v>24.46082881644764</v>
       </c>
       <c r="J20">
-        <v>6.244123895323044</v>
+        <v>9.37890269596001</v>
       </c>
       <c r="K20">
-        <v>14.74453268946886</v>
+        <v>12.66192819508801</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.07927897532842</v>
+        <v>19.69425408658191</v>
       </c>
       <c r="O20">
-        <v>19.04684072913771</v>
+        <v>27.7507369003918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35003044212182</v>
+        <v>12.73128171024789</v>
       </c>
       <c r="C21">
-        <v>11.15881272490264</v>
+        <v>7.926050294395166</v>
       </c>
       <c r="D21">
-        <v>14.53775371568927</v>
+        <v>15.38152165052727</v>
       </c>
       <c r="E21">
-        <v>15.69604201349188</v>
+        <v>16.80813513021495</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.080301199862657</v>
+        <v>3.669856850090532</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.6893139241264</v>
+        <v>24.38539706006884</v>
       </c>
       <c r="J21">
-        <v>6.391614648673458</v>
+        <v>9.379954644375962</v>
       </c>
       <c r="K21">
-        <v>15.64491528453372</v>
+        <v>12.88679524453427</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.79601939865604</v>
+        <v>19.62060182361028</v>
       </c>
       <c r="O21">
-        <v>19.32898200532562</v>
+        <v>27.70627070930373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98933677765638</v>
+        <v>12.94083178555965</v>
       </c>
       <c r="C22">
-        <v>11.57910804899308</v>
+        <v>8.065793856573421</v>
       </c>
       <c r="D22">
-        <v>14.96592501300279</v>
+        <v>15.45704732979528</v>
       </c>
       <c r="E22">
-        <v>16.15510910632118</v>
+        <v>16.88565436957765</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.07581244303244</v>
+        <v>3.668368793254616</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.71367062284744</v>
+        <v>24.33999675685267</v>
       </c>
       <c r="J22">
-        <v>6.489923934636277</v>
+        <v>9.381865020658047</v>
       </c>
       <c r="K22">
-        <v>16.21022203946541</v>
+        <v>13.03343868292973</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.61218695153736</v>
+        <v>19.57397150238915</v>
       </c>
       <c r="O22">
-        <v>19.52964567268225</v>
+        <v>27.68214436948628</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65056504660411</v>
+        <v>12.82926486085379</v>
       </c>
       <c r="C23">
-        <v>11.35629845203468</v>
+        <v>7.991413192319671</v>
       </c>
       <c r="D23">
-        <v>14.7380334364354</v>
+        <v>15.41652179906928</v>
       </c>
       <c r="E23">
-        <v>15.91071381247205</v>
+        <v>16.84403641536417</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.078202688337848</v>
+        <v>3.669157712164711</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.69925623764473</v>
+        <v>24.36387051910532</v>
       </c>
       <c r="J23">
-        <v>6.437281513794963</v>
+        <v>9.380733774568398</v>
       </c>
       <c r="K23">
-        <v>15.91060629880575</v>
+        <v>12.95521643237822</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.71019692995199</v>
+        <v>19.59872161688918</v>
       </c>
       <c r="O23">
-        <v>19.42102768252535</v>
+        <v>27.69456900530029</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.31358083965234</v>
+        <v>12.4011032957496</v>
       </c>
       <c r="C24">
-        <v>10.47896207105939</v>
+        <v>7.705509616328958</v>
       </c>
       <c r="D24">
-        <v>13.86140243060487</v>
+        <v>15.26788423372801</v>
       </c>
       <c r="E24">
-        <v>14.97190685087518</v>
+        <v>16.6918854748892</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.087381801774834</v>
+        <v>3.672262005708361</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.67484000735129</v>
+        <v>24.46212741472639</v>
       </c>
       <c r="J24">
-        <v>6.241746149089372</v>
+        <v>9.378906199952784</v>
       </c>
       <c r="K24">
-        <v>14.72942160731924</v>
+        <v>12.65825080007511</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.08393349083129</v>
+        <v>19.69548340461785</v>
       </c>
       <c r="O24">
-        <v>19.04249679128239</v>
+        <v>27.75154686796754</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75386380969977</v>
+        <v>11.92992063816428</v>
       </c>
       <c r="C25">
-        <v>9.459200207460066</v>
+        <v>7.389922585994587</v>
       </c>
       <c r="D25">
-        <v>12.88968945728552</v>
+        <v>15.11852264377608</v>
       </c>
       <c r="E25">
-        <v>13.93400675383346</v>
+        <v>16.5400621898729</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.097588318576972</v>
+        <v>3.675860946329186</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.70732225105611</v>
+        <v>24.58480048386985</v>
       </c>
       <c r="J25">
-        <v>6.039331695291385</v>
+        <v>9.382207461703246</v>
       </c>
       <c r="K25">
-        <v>13.35417587024769</v>
+        <v>12.33808012093405</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.49391307805799</v>
+        <v>19.80636263790058</v>
       </c>
       <c r="O25">
-        <v>18.70074963250102</v>
+        <v>27.83413527690107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.57779315203136</v>
+        <v>13.50189247472223</v>
       </c>
       <c r="C2">
-        <v>7.153282327285898</v>
+        <v>8.643291665792086</v>
       </c>
       <c r="D2">
-        <v>15.01852548308429</v>
+        <v>12.15546611109326</v>
       </c>
       <c r="E2">
-        <v>16.43938439622382</v>
+        <v>13.15204615554226</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.678728604813291</v>
+        <v>2.105399948594352</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.68942862365345</v>
+        <v>15.77631606276805</v>
       </c>
       <c r="J2">
-        <v>9.389190241959341</v>
+        <v>5.897913586621316</v>
       </c>
       <c r="K2">
-        <v>12.10415100787166</v>
+        <v>12.25264423881992</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.89365978858281</v>
+        <v>12.80303841095261</v>
       </c>
       <c r="O2">
-        <v>27.91304022677859</v>
+        <v>18.50242530801232</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.33747745152123</v>
+        <v>12.58764376036783</v>
       </c>
       <c r="C3">
-        <v>6.991311992468935</v>
+        <v>8.048846855308216</v>
       </c>
       <c r="D3">
-        <v>14.95722939437158</v>
+        <v>11.64874286972092</v>
       </c>
       <c r="E3">
-        <v>16.37832576323501</v>
+        <v>12.61375102488371</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.680809086434632</v>
+        <v>2.110894567921198</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.76923467071082</v>
+        <v>15.84853222528835</v>
       </c>
       <c r="J3">
-        <v>9.396768550694265</v>
+        <v>5.806989923153571</v>
       </c>
       <c r="K3">
-        <v>11.9476152764383</v>
+        <v>11.4497808866472</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.95638184321639</v>
+        <v>13.01769223048367</v>
       </c>
       <c r="O3">
-        <v>27.97775780621648</v>
+        <v>18.39913119568816</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.18965504868252</v>
+        <v>11.9934714405741</v>
       </c>
       <c r="C4">
-        <v>6.891459503336968</v>
+        <v>7.663100201004632</v>
       </c>
       <c r="D4">
-        <v>14.9228615470779</v>
+        <v>11.33418240034429</v>
       </c>
       <c r="E4">
-        <v>16.34444537351779</v>
+        <v>12.28025147556821</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.682154500080106</v>
+        <v>2.114372013241192</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.82261680847136</v>
+        <v>15.90458209345858</v>
       </c>
       <c r="J4">
-        <v>9.402827071894752</v>
+        <v>5.753639915311964</v>
       </c>
       <c r="K4">
-        <v>11.85278262364351</v>
+        <v>10.92878323145618</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.99665944274593</v>
+        <v>13.1522263130304</v>
       </c>
       <c r="O4">
-        <v>28.02302374536799</v>
+        <v>18.35029786897686</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12943650631922</v>
+        <v>11.74303524427909</v>
       </c>
       <c r="C5">
-        <v>6.850728562821762</v>
+        <v>7.500645749512492</v>
       </c>
       <c r="D5">
-        <v>14.9096889192517</v>
+        <v>11.20531995735926</v>
       </c>
       <c r="E5">
-        <v>16.33155681974135</v>
+        <v>12.14379324934597</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.682719918455314</v>
+        <v>2.115815845741689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.84547078565421</v>
+        <v>15.93024500311221</v>
       </c>
       <c r="J5">
-        <v>9.405649603452352</v>
+        <v>5.732529802798493</v>
       </c>
       <c r="K5">
-        <v>11.81450423532104</v>
+        <v>10.70939264632328</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.01351832565</v>
+        <v>13.20776448487434</v>
       </c>
       <c r="O5">
-        <v>28.042857771399</v>
+        <v>18.33395006613356</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.11944108813534</v>
+        <v>11.70094729376751</v>
       </c>
       <c r="C6">
-        <v>6.843964605607996</v>
+        <v>7.473351483973725</v>
       </c>
       <c r="D6">
-        <v>14.9075521910359</v>
+        <v>11.18388743694344</v>
       </c>
       <c r="E6">
-        <v>16.32947240652293</v>
+        <v>12.12110711682649</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.682814843262408</v>
+        <v>2.116057227185077</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.84933208987644</v>
+        <v>15.93467326467714</v>
       </c>
       <c r="J6">
-        <v>9.406139646626542</v>
+        <v>5.729062756229808</v>
       </c>
       <c r="K6">
-        <v>11.80817157729564</v>
+        <v>10.67253463543464</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.01634467336626</v>
+        <v>13.21703045807931</v>
       </c>
       <c r="O6">
-        <v>28.04623493712883</v>
+        <v>18.331446576105</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.1888427209865</v>
+        <v>11.99012767179195</v>
       </c>
       <c r="C7">
-        <v>6.89091027277922</v>
+        <v>7.660930632141223</v>
       </c>
       <c r="D7">
-        <v>14.92268051206498</v>
+        <v>11.33244699408958</v>
       </c>
       <c r="E7">
-        <v>16.34426782439266</v>
+        <v>12.27841312262241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.682162055991837</v>
+        <v>2.114391376125074</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.82292057177871</v>
+        <v>15.90491692418547</v>
       </c>
       <c r="J7">
-        <v>9.40286370543784</v>
+        <v>5.753352655308114</v>
       </c>
       <c r="K7">
-        <v>11.85226484471505</v>
+        <v>10.92585315500757</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.99688500220175</v>
+        <v>13.15297239331773</v>
       </c>
       <c r="O7">
-        <v>28.02328561841656</v>
+        <v>18.35006317133974</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.49503968413103</v>
+        <v>13.19343880930282</v>
       </c>
       <c r="C8">
-        <v>7.097554298995037</v>
+        <v>8.442610042632612</v>
       </c>
       <c r="D8">
-        <v>14.99671903506671</v>
+        <v>11.98156490994633</v>
       </c>
       <c r="E8">
-        <v>16.41758863799294</v>
+        <v>12.9671721767707</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.679431876734613</v>
+        <v>2.107273373613257</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.71603572348615</v>
+        <v>15.79871131796924</v>
       </c>
       <c r="J8">
-        <v>9.391511711586102</v>
+        <v>5.866053703493937</v>
       </c>
       <c r="K8">
-        <v>12.0499385295201</v>
+        <v>11.98161626807561</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.91492064033809</v>
+        <v>12.87649962187914</v>
       </c>
       <c r="O8">
-        <v>27.93420581195162</v>
+        <v>18.46371271671192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.08964566269534</v>
+        <v>15.29518386183545</v>
       </c>
       <c r="C9">
-        <v>7.497027546906139</v>
+        <v>9.812690664038247</v>
       </c>
       <c r="D9">
-        <v>15.16732062061111</v>
+        <v>13.22021607445211</v>
       </c>
       <c r="E9">
-        <v>16.58951274092629</v>
+        <v>14.28669251977568</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.674614966408677</v>
+        <v>2.094106332295714</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.54125258366309</v>
+        <v>15.68901596924694</v>
       </c>
       <c r="J9">
-        <v>9.380389340527689</v>
+        <v>6.106353681552405</v>
       </c>
       <c r="K9">
-        <v>12.44576324200518</v>
+        <v>13.83112277046968</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.76813809661353</v>
+        <v>12.3547708392797</v>
       </c>
       <c r="O9">
-        <v>27.80349879447746</v>
+        <v>18.80731506925441</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.51817657042624</v>
+        <v>16.68560403210595</v>
       </c>
       <c r="C10">
-        <v>7.78376031433471</v>
+        <v>10.72277569381873</v>
       </c>
       <c r="D10">
-        <v>15.30739179142947</v>
+        <v>14.10153390352872</v>
       </c>
       <c r="E10">
-        <v>16.73224179037228</v>
+        <v>15.22885392557218</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.671399825848347</v>
+        <v>2.084868029273844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.43414276371128</v>
+        <v>15.67657408498931</v>
       </c>
       <c r="J10">
-        <v>9.3789882864462</v>
+        <v>6.294163159134524</v>
       </c>
       <c r="K10">
-        <v>12.73891912491138</v>
+        <v>15.05788550000086</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.66871080711513</v>
+        <v>11.98202200250854</v>
       </c>
       <c r="O10">
-        <v>27.73441584603839</v>
+        <v>19.13982475411955</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.71038579108592</v>
+        <v>17.28555327475129</v>
       </c>
       <c r="C11">
-        <v>7.912106192313038</v>
+        <v>11.11646494959329</v>
       </c>
       <c r="D11">
-        <v>15.37413067701567</v>
+        <v>14.49502180547898</v>
       </c>
       <c r="E11">
-        <v>16.80055919200647</v>
+        <v>15.6502532645066</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.670006749443488</v>
+        <v>2.080748742407916</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.39005786070342</v>
+        <v>15.68752439539713</v>
       </c>
       <c r="J11">
-        <v>9.379815125561159</v>
+        <v>6.381945020965504</v>
       </c>
       <c r="K11">
-        <v>12.87223802954111</v>
+        <v>15.58792675586246</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.62528649794849</v>
+        <v>11.81429445599915</v>
       </c>
       <c r="O11">
-        <v>27.70886459467104</v>
+        <v>19.30976168115922</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.78270572064729</v>
+        <v>17.50812311140954</v>
       </c>
       <c r="C12">
-        <v>7.960358951437732</v>
+        <v>11.26267743361572</v>
       </c>
       <c r="D12">
-        <v>15.39982059298566</v>
+        <v>14.64288380308215</v>
       </c>
       <c r="E12">
-        <v>16.82690011096179</v>
+        <v>15.8087134711749</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.669489166169251</v>
+        <v>2.07919986654285</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.37403261986602</v>
+        <v>15.69421375946559</v>
       </c>
       <c r="J12">
-        <v>9.380338096043266</v>
+        <v>6.415515223765896</v>
       </c>
       <c r="K12">
-        <v>12.92267156888187</v>
+        <v>15.78466626509236</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.609101072157</v>
+        <v>11.75100512083748</v>
       </c>
       <c r="O12">
-        <v>27.70003542826225</v>
+        <v>19.37689669528342</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.767152143151</v>
+        <v>17.46039304831705</v>
       </c>
       <c r="C13">
-        <v>7.949983114917305</v>
+        <v>11.23131470734416</v>
       </c>
       <c r="D13">
-        <v>15.39426952507841</v>
+        <v>14.61109091447451</v>
       </c>
       <c r="E13">
-        <v>16.82120646828836</v>
+        <v>15.77463684983191</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.669600195502775</v>
+        <v>2.07953297115788</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.37745417488983</v>
+        <v>15.69265750359053</v>
       </c>
       <c r="J13">
-        <v>9.380216143099592</v>
+        <v>6.408270759878882</v>
       </c>
       <c r="K13">
-        <v>12.91181280808276</v>
+        <v>15.74247081472805</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.61257541954625</v>
+        <v>11.76462623213683</v>
       </c>
       <c r="O13">
-        <v>27.70189927245898</v>
+        <v>19.36231264587389</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.71634532525298</v>
+        <v>17.30395640239687</v>
       </c>
       <c r="C14">
-        <v>7.916083236419416</v>
+        <v>11.12855113266914</v>
       </c>
       <c r="D14">
-        <v>15.37623593697422</v>
+        <v>14.50720977580014</v>
       </c>
       <c r="E14">
-        <v>16.80271694265236</v>
+        <v>15.66331260163603</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.669963968541105</v>
+        <v>2.080621100598449</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.38872604291443</v>
+        <v>15.68802287749208</v>
       </c>
       <c r="J14">
-        <v>9.379853948910267</v>
+        <v>6.384700308468329</v>
       </c>
       <c r="K14">
-        <v>12.87638851618242</v>
+        <v>15.60419199064402</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.62394974118814</v>
+        <v>11.80908331808801</v>
       </c>
       <c r="O14">
-        <v>27.70812123897902</v>
+        <v>19.3152285835707</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.68516197696608</v>
+        <v>17.20753499851913</v>
       </c>
       <c r="C15">
-        <v>7.89527174744117</v>
+        <v>11.0652334213919</v>
       </c>
       <c r="D15">
-        <v>15.3652436805584</v>
+        <v>14.4434287882266</v>
       </c>
       <c r="E15">
-        <v>16.79145234889781</v>
+        <v>15.59497612277263</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.670188083608868</v>
+        <v>2.081289015157954</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.39571752449794</v>
+        <v>15.68551981038815</v>
       </c>
       <c r="J15">
-        <v>9.379659403168365</v>
+        <v>6.370305363664578</v>
       </c>
       <c r="K15">
-        <v>12.85468207668353</v>
+        <v>15.51897613007486</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.63095045876264</v>
+        <v>11.83634272829252</v>
       </c>
       <c r="O15">
-        <v>27.71204266423234</v>
+        <v>19.28675358664335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.50555395645498</v>
+        <v>16.64574617531012</v>
       </c>
       <c r="C16">
-        <v>7.775326326465285</v>
+        <v>10.69664280096313</v>
       </c>
       <c r="D16">
-        <v>15.30308958737408</v>
+        <v>14.07566219301734</v>
       </c>
       <c r="E16">
-        <v>16.72784387344404</v>
+        <v>15.20116238754916</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.671492261001336</v>
+        <v>2.085138828924301</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.43711731502187</v>
+        <v>15.67620579369242</v>
       </c>
       <c r="J16">
-        <v>9.37896365742276</v>
+        <v>6.288472885823598</v>
       </c>
       <c r="K16">
-        <v>12.73020169114224</v>
+        <v>15.02268672659234</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.6715849166391</v>
+        <v>11.99301711505755</v>
       </c>
       <c r="O16">
-        <v>27.73620405286695</v>
+        <v>19.12910325114738</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.39461741549521</v>
+        <v>16.29281240638713</v>
       </c>
       <c r="C17">
-        <v>7.701172753461023</v>
+        <v>10.46535784255703</v>
       </c>
       <c r="D17">
-        <v>15.26572172952874</v>
+        <v>13.84808698812265</v>
       </c>
       <c r="E17">
-        <v>16.68967853785173</v>
+        <v>14.95766398089335</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.672310097970959</v>
+        <v>2.087521225600037</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.46370424191061</v>
+        <v>15.67485476042444</v>
       </c>
       <c r="J17">
-        <v>9.378911396314068</v>
+        <v>6.23886599545167</v>
       </c>
       <c r="K17">
-        <v>12.65379402880807</v>
+        <v>14.71108972540759</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.69697443246382</v>
+        <v>12.0895756866413</v>
       </c>
       <c r="O17">
-        <v>27.75253230613349</v>
+        <v>19.03724426460775</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.3305565987086</v>
+        <v>16.08674556314384</v>
       </c>
       <c r="C18">
-        <v>7.65832751230931</v>
+        <v>10.33041363987327</v>
       </c>
       <c r="D18">
-        <v>15.24451402618721</v>
+        <v>13.71649579505143</v>
       </c>
       <c r="E18">
-        <v>16.66804691665684</v>
+        <v>14.81693634585437</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.672787041502346</v>
+        <v>2.088899415933307</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.47943297705609</v>
+        <v>15.67563165218309</v>
       </c>
       <c r="J18">
-        <v>9.379019200012168</v>
+        <v>6.210554711786738</v>
       </c>
       <c r="K18">
-        <v>12.60984535021059</v>
+        <v>14.52922662717735</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.71174784112754</v>
+        <v>12.14528908111706</v>
       </c>
       <c r="O18">
-        <v>27.76247677430086</v>
+        <v>18.98616174551976</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.30882553606244</v>
+        <v>16.01644591022643</v>
       </c>
       <c r="C19">
-        <v>7.643789051410711</v>
+        <v>10.28439337403837</v>
       </c>
       <c r="D19">
-        <v>15.23738296523033</v>
+        <v>13.67182436385103</v>
       </c>
       <c r="E19">
-        <v>16.66077829094339</v>
+        <v>14.76917545022748</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.672949652101489</v>
+        <v>2.089367432415703</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.48483340197684</v>
+        <v>15.67615695181744</v>
       </c>
       <c r="J19">
-        <v>9.37907939787692</v>
+        <v>6.201007276719235</v>
       </c>
       <c r="K19">
-        <v>12.59496632308305</v>
+        <v>14.46719578797873</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.71677910420028</v>
+        <v>12.16418395384295</v>
       </c>
       <c r="O19">
-        <v>27.76593870257824</v>
+        <v>18.96916400374881</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.40645353107962</v>
+        <v>16.33069994815533</v>
       </c>
       <c r="C20">
-        <v>7.709086975062027</v>
+        <v>10.49017637090575</v>
       </c>
       <c r="D20">
-        <v>15.26967019431396</v>
+        <v>13.87238539332175</v>
       </c>
       <c r="E20">
-        <v>16.69370829571996</v>
+        <v>14.98365518406431</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.672222360778834</v>
+        <v>2.087266804684865</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.46082881644764</v>
+        <v>15.67483664483224</v>
       </c>
       <c r="J20">
-        <v>9.37890269596001</v>
+        <v>6.244123895323039</v>
       </c>
       <c r="K20">
-        <v>12.66192819508801</v>
+        <v>14.7445326894689</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.69425408658191</v>
+        <v>12.07927897532839</v>
       </c>
       <c r="O20">
-        <v>27.7507369003918</v>
+        <v>19.04684072913765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.73128171024789</v>
+        <v>17.35003044212179</v>
       </c>
       <c r="C21">
-        <v>7.926050294395166</v>
+        <v>11.15881272490266</v>
       </c>
       <c r="D21">
-        <v>15.38152165052727</v>
+        <v>14.53775371568921</v>
       </c>
       <c r="E21">
-        <v>16.80813513021495</v>
+        <v>15.69604201349183</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.669856850090532</v>
+        <v>2.080301199862657</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.38539706006884</v>
+        <v>15.68931392412645</v>
       </c>
       <c r="J21">
-        <v>9.379954644375962</v>
+        <v>6.391614648673431</v>
       </c>
       <c r="K21">
-        <v>12.88679524453427</v>
+        <v>15.64491528453373</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.62060182361028</v>
+        <v>11.79601939865607</v>
       </c>
       <c r="O21">
-        <v>27.70627070930373</v>
+        <v>19.32898200532562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.94083178555965</v>
+        <v>17.9893367776564</v>
       </c>
       <c r="C22">
-        <v>8.065793856573421</v>
+        <v>11.57910804899312</v>
       </c>
       <c r="D22">
-        <v>15.45704732979528</v>
+        <v>14.96592501300277</v>
       </c>
       <c r="E22">
-        <v>16.88565436957765</v>
+        <v>16.1551091063212</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.668368793254616</v>
+        <v>2.075812443032308</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.33999675685267</v>
+        <v>15.71367062284744</v>
       </c>
       <c r="J22">
-        <v>9.381865020658047</v>
+        <v>6.489923934636291</v>
       </c>
       <c r="K22">
-        <v>13.03343868292973</v>
+        <v>16.21022203946542</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.57397150238915</v>
+        <v>11.61218695153733</v>
       </c>
       <c r="O22">
-        <v>27.68214436948628</v>
+        <v>19.52964567268221</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.82926486085379</v>
+        <v>17.65056504660405</v>
       </c>
       <c r="C23">
-        <v>7.991413192319671</v>
+        <v>11.35629845203473</v>
       </c>
       <c r="D23">
-        <v>15.41652179906928</v>
+        <v>14.73803343643538</v>
       </c>
       <c r="E23">
-        <v>16.84403641536417</v>
+        <v>15.910713812472</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.669157712164711</v>
+        <v>2.078202688337847</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.36387051910532</v>
+        <v>15.6992562376448</v>
       </c>
       <c r="J23">
-        <v>9.380733774568398</v>
+        <v>6.437281513794907</v>
       </c>
       <c r="K23">
-        <v>12.95521643237822</v>
+        <v>15.91060629880572</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.59872161688918</v>
+        <v>11.71019692995199</v>
       </c>
       <c r="O23">
-        <v>27.69456900530029</v>
+        <v>19.42102768252536</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.4011032957496</v>
+        <v>16.31358083965229</v>
       </c>
       <c r="C24">
-        <v>7.705509616328958</v>
+        <v>10.47896207105945</v>
       </c>
       <c r="D24">
-        <v>15.26788423372801</v>
+        <v>13.86140243060491</v>
       </c>
       <c r="E24">
-        <v>16.6918854748892</v>
+        <v>14.97190685087519</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.672262005708361</v>
+        <v>2.087381801774698</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.46212741472639</v>
+        <v>15.67484000735139</v>
       </c>
       <c r="J24">
-        <v>9.378906199952784</v>
+        <v>6.241746149089363</v>
       </c>
       <c r="K24">
-        <v>12.65825080007511</v>
+        <v>14.7294216073192</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69548340461785</v>
+        <v>12.08393349083132</v>
       </c>
       <c r="O24">
-        <v>27.75154686796754</v>
+        <v>19.0424967912825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.92992063816428</v>
+        <v>14.75386380969978</v>
       </c>
       <c r="C25">
-        <v>7.389922585994587</v>
+        <v>9.459200207460185</v>
       </c>
       <c r="D25">
-        <v>15.11852264377608</v>
+        <v>12.8896894572856</v>
       </c>
       <c r="E25">
-        <v>16.5400621898729</v>
+        <v>13.93400675383348</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.675860946329186</v>
+        <v>2.097588318576972</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.58480048386985</v>
+        <v>15.70732225105622</v>
       </c>
       <c r="J25">
-        <v>9.382207461703246</v>
+        <v>6.039331695291366</v>
       </c>
       <c r="K25">
-        <v>12.33808012093405</v>
+        <v>13.35417587024773</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.80636263790058</v>
+        <v>12.493913078058</v>
       </c>
       <c r="O25">
-        <v>27.83413527690107</v>
+        <v>18.70074963250105</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50189247472223</v>
+        <v>13.05198770692551</v>
       </c>
       <c r="C2">
-        <v>8.643291665792086</v>
+        <v>9.389744748924235</v>
       </c>
       <c r="D2">
-        <v>12.15546611109326</v>
+        <v>10.6079731110882</v>
       </c>
       <c r="E2">
-        <v>13.15204615554226</v>
+        <v>10.38681793345947</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.105399948594352</v>
+        <v>41.13122698505986</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.391024219776002</v>
       </c>
       <c r="I2">
-        <v>15.77631606276805</v>
+        <v>3.629173954080032</v>
       </c>
       <c r="J2">
-        <v>5.897913586621316</v>
+        <v>13.32449805798108</v>
       </c>
       <c r="K2">
-        <v>12.25264423881992</v>
+        <v>20.31112938184211</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.115152279347815</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.13559529779313</v>
       </c>
       <c r="N2">
-        <v>12.80303841095261</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.50242530801232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.38973209723812</v>
+      </c>
+      <c r="P2">
+        <v>14.9394049142603</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.58764376036783</v>
+        <v>12.24423534448151</v>
       </c>
       <c r="C3">
-        <v>8.048846855308216</v>
+        <v>8.80701428006186</v>
       </c>
       <c r="D3">
-        <v>11.64874286972092</v>
+        <v>10.17572318010653</v>
       </c>
       <c r="E3">
-        <v>12.61375102488371</v>
+        <v>9.949928699037509</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.110894567921198</v>
+        <v>40.00298353129164</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.655164330943517</v>
       </c>
       <c r="I3">
-        <v>15.84853222528835</v>
+        <v>3.819025096586991</v>
       </c>
       <c r="J3">
-        <v>5.806989923153571</v>
+        <v>13.18282021258503</v>
       </c>
       <c r="K3">
-        <v>11.4497808866472</v>
+        <v>20.08281021070755</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.98809631354382</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.45574947876507</v>
       </c>
       <c r="N3">
-        <v>13.01769223048367</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18.39913119568816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.80181916727358</v>
+      </c>
+      <c r="P3">
+        <v>15.03891725634808</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.9934714405741</v>
+        <v>11.7198306792404</v>
       </c>
       <c r="C4">
-        <v>7.663100201004632</v>
+        <v>8.437014530294986</v>
       </c>
       <c r="D4">
-        <v>11.33418240034429</v>
+        <v>9.902802955767323</v>
       </c>
       <c r="E4">
-        <v>12.28025147556821</v>
+        <v>9.671696764118625</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114372013241192</v>
+        <v>39.30151743762272</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.823089873640684</v>
       </c>
       <c r="I4">
-        <v>15.90458209345858</v>
+        <v>3.940297017873466</v>
       </c>
       <c r="J4">
-        <v>5.753639915311964</v>
+        <v>13.09728819925824</v>
       </c>
       <c r="K4">
-        <v>10.92878323145618</v>
+        <v>19.94316070411933</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.907503325070943</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.01965528380424</v>
       </c>
       <c r="N4">
-        <v>13.1522263130304</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>18.35029786897686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.42836502237453</v>
+      </c>
+      <c r="P4">
+        <v>15.10069610946065</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.74303524427909</v>
+        <v>11.49280587355101</v>
       </c>
       <c r="C5">
-        <v>7.500645749512492</v>
+        <v>8.291300214573999</v>
       </c>
       <c r="D5">
-        <v>11.20531995735926</v>
+        <v>9.789810712213333</v>
       </c>
       <c r="E5">
-        <v>12.14379324934597</v>
+        <v>9.555824963284287</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.115815845741689</v>
+        <v>38.99371369136183</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.893341716108103</v>
       </c>
       <c r="I5">
-        <v>15.93024500311221</v>
+        <v>3.993520050985359</v>
       </c>
       <c r="J5">
-        <v>5.732529802798493</v>
+        <v>13.05899738056869</v>
       </c>
       <c r="K5">
-        <v>10.70939264632328</v>
+        <v>19.87778330432521</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.873895804299674</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.83595486626457</v>
       </c>
       <c r="N5">
-        <v>13.20776448487434</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>18.33395006613356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.2724189438219</v>
+      </c>
+      <c r="P5">
+        <v>15.12358812065208</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70094729376751</v>
+        <v>11.44703853985519</v>
       </c>
       <c r="C6">
-        <v>7.473351483973725</v>
+        <v>8.276746675902379</v>
       </c>
       <c r="D6">
-        <v>11.18388743694344</v>
+        <v>9.770932701912493</v>
       </c>
       <c r="E6">
-        <v>12.12110711682649</v>
+        <v>9.536364037024004</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.116057227185077</v>
+        <v>38.91795165427538</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.905526312328145</v>
       </c>
       <c r="I6">
-        <v>15.93467326467714</v>
+        <v>4.00575645847947</v>
       </c>
       <c r="J6">
-        <v>5.729062756229808</v>
+        <v>13.04799977581893</v>
       </c>
       <c r="K6">
-        <v>10.67253463543464</v>
+        <v>19.85638929656223</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.868131304177941</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.80341719458848</v>
       </c>
       <c r="N6">
-        <v>13.21703045807931</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>18.331446576105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.24538761768091</v>
+      </c>
+      <c r="P6">
+        <v>15.12440005316865</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99012767179195</v>
+        <v>11.69637872524352</v>
       </c>
       <c r="C7">
-        <v>7.660930632141223</v>
+        <v>8.461251715516932</v>
       </c>
       <c r="D7">
-        <v>11.33244699408958</v>
+        <v>9.901255067394123</v>
       </c>
       <c r="E7">
-        <v>12.27841312262241</v>
+        <v>9.669945588424827</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.114391376125074</v>
+        <v>39.23097380084226</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.825190064331208</v>
       </c>
       <c r="I7">
-        <v>15.90491692418547</v>
+        <v>3.949833606243465</v>
       </c>
       <c r="J7">
-        <v>5.753352655308114</v>
+        <v>13.08409800953944</v>
       </c>
       <c r="K7">
-        <v>10.92585315500757</v>
+        <v>19.91359624218363</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.906664234391187</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.01246283367635</v>
       </c>
       <c r="N7">
-        <v>13.15297239331773</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>18.35006317133974</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.42368428403106</v>
+      </c>
+      <c r="P7">
+        <v>15.09285741136547</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.19343880930282</v>
+        <v>12.75434912876235</v>
       </c>
       <c r="C8">
-        <v>8.442610042632612</v>
+        <v>9.223419049019252</v>
       </c>
       <c r="D8">
-        <v>11.98156490994633</v>
+        <v>10.46054317384777</v>
       </c>
       <c r="E8">
-        <v>12.9671721767707</v>
+        <v>10.23807840925837</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.107273373613257</v>
+        <v>40.65938231137057</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.482389633501831</v>
       </c>
       <c r="I8">
-        <v>15.79871131796924</v>
+        <v>3.704951818569383</v>
       </c>
       <c r="J8">
-        <v>5.866053703493937</v>
+        <v>13.2588803968881</v>
       </c>
       <c r="K8">
-        <v>11.98161626807561</v>
+        <v>20.19499619780019</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.071399419967944</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.89924876075345</v>
       </c>
       <c r="N8">
-        <v>12.87649962187914</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18.46371271671192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.18644201604526</v>
+      </c>
+      <c r="P8">
+        <v>14.96300276836364</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29518386183545</v>
+        <v>14.63386782374105</v>
       </c>
       <c r="C9">
-        <v>9.812690664038247</v>
+        <v>10.64841546482525</v>
       </c>
       <c r="D9">
-        <v>13.22021607445211</v>
+        <v>11.49294283590285</v>
       </c>
       <c r="E9">
-        <v>14.28669251977568</v>
+        <v>11.27027695307734</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.094106332295714</v>
+        <v>43.49202697318918</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.852615385419927</v>
       </c>
       <c r="I9">
-        <v>15.68901596924694</v>
+        <v>3.246803420394065</v>
       </c>
       <c r="J9">
-        <v>6.106353681552405</v>
+        <v>13.63493630635789</v>
       </c>
       <c r="K9">
-        <v>13.83112277046968</v>
+        <v>20.80033544795663</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.374552854640101</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.54010686044391</v>
       </c>
       <c r="N9">
-        <v>12.3547708392797</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.80731506925441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.58159546899165</v>
+      </c>
+      <c r="P9">
+        <v>14.72778894794554</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.68560403210595</v>
+        <v>15.90978202736699</v>
       </c>
       <c r="C10">
-        <v>10.72277569381873</v>
+        <v>11.59624663878034</v>
       </c>
       <c r="D10">
-        <v>14.10153390352872</v>
+        <v>12.09651045103655</v>
       </c>
       <c r="E10">
-        <v>15.22885392557218</v>
+        <v>11.7823450661132</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.084868029273844</v>
+        <v>45.17453972977539</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.449376244041462</v>
       </c>
       <c r="I10">
-        <v>15.67657408498931</v>
+        <v>2.944687658659134</v>
       </c>
       <c r="J10">
-        <v>6.294163159134524</v>
+        <v>13.85039425567169</v>
       </c>
       <c r="K10">
-        <v>15.05788550000086</v>
+        <v>21.12798524241891</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.525342662088134</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.70950194578574</v>
       </c>
       <c r="N10">
-        <v>11.98202200250854</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>19.13982475411955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.40873195099173</v>
+      </c>
+      <c r="P10">
+        <v>14.51943196979882</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28555327475129</v>
+        <v>16.20929827754131</v>
       </c>
       <c r="C11">
-        <v>11.11646494959329</v>
+        <v>11.52155250797</v>
       </c>
       <c r="D11">
-        <v>14.49502180547898</v>
+        <v>11.41342516275272</v>
       </c>
       <c r="E11">
-        <v>15.6502532645066</v>
+        <v>10.39308951304947</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.080748742407916</v>
+        <v>43.20930421391708</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.24882134045317</v>
       </c>
       <c r="I11">
-        <v>15.68752439539713</v>
+        <v>2.890646556416065</v>
       </c>
       <c r="J11">
-        <v>6.381945020965504</v>
+        <v>13.40257270458054</v>
       </c>
       <c r="K11">
-        <v>15.58792675586246</v>
+        <v>20.3354379820049</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.16354432702803</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.89015226183109</v>
       </c>
       <c r="N11">
-        <v>11.81429445599915</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>19.30976168115922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.68034856483914</v>
+      </c>
+      <c r="P11">
+        <v>14.13070757516801</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50812311140954</v>
+        <v>16.22556173427001</v>
       </c>
       <c r="C12">
-        <v>11.26267743361572</v>
+        <v>11.23110194107909</v>
       </c>
       <c r="D12">
-        <v>14.64288380308215</v>
+        <v>10.70506711889642</v>
       </c>
       <c r="E12">
-        <v>15.8087134711749</v>
+        <v>9.186123610587375</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.07919986654285</v>
+        <v>41.26119453705915</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.504203986379684</v>
       </c>
       <c r="I12">
-        <v>15.69421375946559</v>
+        <v>2.887004204033333</v>
       </c>
       <c r="J12">
-        <v>6.415515223765896</v>
+        <v>12.9939244880209</v>
       </c>
       <c r="K12">
-        <v>15.78466626509236</v>
+        <v>19.63734384490616</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.955360529387686</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.80970041112752</v>
       </c>
       <c r="N12">
-        <v>11.75100512083748</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>19.37689669528342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.88744628946887</v>
+      </c>
+      <c r="P12">
+        <v>13.88056379506953</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46039304831705</v>
+        <v>16.002135261815</v>
       </c>
       <c r="C13">
-        <v>11.23131470734416</v>
+        <v>10.77594710707599</v>
       </c>
       <c r="D13">
-        <v>14.61109091447451</v>
+        <v>9.920202746034715</v>
       </c>
       <c r="E13">
-        <v>15.77463684983191</v>
+        <v>8.061196786894206</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.07953297115788</v>
+        <v>39.08401177628932</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.869606665882412</v>
       </c>
       <c r="I13">
-        <v>15.69265750359053</v>
+        <v>2.936924308729615</v>
       </c>
       <c r="J13">
-        <v>6.408270759878882</v>
+        <v>12.56992363430259</v>
       </c>
       <c r="K13">
-        <v>15.74247081472805</v>
+        <v>18.92442664259634</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.862812722005162</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.51534266030616</v>
       </c>
       <c r="N13">
-        <v>11.76462623213683</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>19.36231264587389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.97609205139931</v>
+      </c>
+      <c r="P13">
+        <v>13.71080668416197</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30395640239687</v>
+        <v>15.72968761740894</v>
       </c>
       <c r="C14">
-        <v>11.12855113266914</v>
+        <v>10.38164785490727</v>
       </c>
       <c r="D14">
-        <v>14.50720977580014</v>
+        <v>9.33134082533053</v>
       </c>
       <c r="E14">
-        <v>15.66331260163603</v>
+        <v>7.352773668351838</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.080621100598449</v>
+        <v>37.42927823281871</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.856356256649882</v>
       </c>
       <c r="I14">
-        <v>15.68802287749208</v>
+        <v>2.99879883747413</v>
       </c>
       <c r="J14">
-        <v>6.384700308468329</v>
+        <v>12.26388898073446</v>
       </c>
       <c r="K14">
-        <v>15.60419199064402</v>
+        <v>18.41378624563156</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.872213019353863</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.2074552324392</v>
       </c>
       <c r="N14">
-        <v>11.80908331808801</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>19.3152285835707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.2762107192077</v>
+      </c>
+      <c r="P14">
+        <v>13.63078073692343</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.20753499851913</v>
+        <v>15.60466753366368</v>
       </c>
       <c r="C15">
-        <v>11.0652334213919</v>
+        <v>10.25629639850673</v>
       </c>
       <c r="D15">
-        <v>14.4434287882266</v>
+        <v>9.171305365347994</v>
       </c>
       <c r="E15">
-        <v>15.59497612277263</v>
+        <v>7.189882915452345</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.081289015157954</v>
+        <v>36.95752134404558</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.090309508818928</v>
       </c>
       <c r="I15">
-        <v>15.68551981038815</v>
+        <v>3.030187589024204</v>
       </c>
       <c r="J15">
-        <v>6.370305363664578</v>
+        <v>12.18272296406811</v>
       </c>
       <c r="K15">
-        <v>15.51897613007486</v>
+        <v>18.27781521243143</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.880031674285522</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.0838428578975</v>
       </c>
       <c r="N15">
-        <v>11.83634272829252</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>19.28675358664335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.0792538249779</v>
+      </c>
+      <c r="P15">
+        <v>13.62388859982686</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.64574617531012</v>
+        <v>15.09986883686057</v>
       </c>
       <c r="C16">
-        <v>10.69664280096313</v>
+        <v>9.930560801965823</v>
       </c>
       <c r="D16">
-        <v>14.07566219301734</v>
+        <v>9.038464028074243</v>
       </c>
       <c r="E16">
-        <v>15.20116238754916</v>
+        <v>7.150641887760662</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.085138828924301</v>
+        <v>36.56453825995577</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.931254494562562</v>
       </c>
       <c r="I16">
-        <v>15.67620579369242</v>
+        <v>3.153556453306209</v>
       </c>
       <c r="J16">
-        <v>6.288472885823598</v>
+        <v>12.16437994477598</v>
       </c>
       <c r="K16">
-        <v>15.02268672659234</v>
+        <v>18.2582969364017</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.824987239326535</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.63960494596299</v>
       </c>
       <c r="N16">
-        <v>11.99301711505755</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>19.12910325114738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.86832501335744</v>
+      </c>
+      <c r="P16">
+        <v>13.74259809791117</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.29281240638713</v>
+        <v>14.85553459351536</v>
       </c>
       <c r="C17">
-        <v>10.46535784255703</v>
+        <v>9.899147064960214</v>
       </c>
       <c r="D17">
-        <v>13.84808698812265</v>
+        <v>9.257947626715541</v>
       </c>
       <c r="E17">
-        <v>14.95766398089335</v>
+        <v>7.481491408531669</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.087521225600037</v>
+        <v>37.16124902146899</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.263068439617128</v>
       </c>
       <c r="I17">
-        <v>15.67485476042444</v>
+        <v>3.21640865450676</v>
       </c>
       <c r="J17">
-        <v>6.23886599545167</v>
+        <v>12.31353288056976</v>
       </c>
       <c r="K17">
-        <v>14.71108972540759</v>
+        <v>18.51450046146109</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.764080851461631</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.46356774257166</v>
       </c>
       <c r="N17">
-        <v>12.0895756866413</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>19.03724426460775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.08968021222799</v>
+      </c>
+      <c r="P17">
+        <v>13.87398615847764</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.08674556314384</v>
+        <v>14.82995778040934</v>
       </c>
       <c r="C18">
-        <v>10.33041363987327</v>
+        <v>10.10512299146447</v>
       </c>
       <c r="D18">
-        <v>13.71649579505143</v>
+        <v>9.809708005606195</v>
       </c>
       <c r="E18">
-        <v>14.81693634585437</v>
+        <v>8.27441887395473</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.088899415933307</v>
+        <v>38.72471031266226</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.124562730677738</v>
       </c>
       <c r="I18">
-        <v>15.67563165218309</v>
+        <v>3.221974814039193</v>
       </c>
       <c r="J18">
-        <v>6.210554711786738</v>
+        <v>12.63376506714584</v>
       </c>
       <c r="K18">
-        <v>14.52922662717735</v>
+        <v>19.06195923729525</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.767816545662308</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.50931440617003</v>
       </c>
       <c r="N18">
-        <v>12.14528908111706</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.98616174551976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>12.7128603365697</v>
+      </c>
+      <c r="P18">
+        <v>14.04852465175321</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.01644591022643</v>
+        <v>14.95304265672452</v>
       </c>
       <c r="C19">
-        <v>10.28439337403837</v>
+        <v>10.52045561489243</v>
       </c>
       <c r="D19">
-        <v>13.67182436385103</v>
+        <v>10.58724242876303</v>
       </c>
       <c r="E19">
-        <v>14.76917545022748</v>
+        <v>9.483961803353569</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.089367432415703</v>
+        <v>40.83730349498424</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.829658696028283</v>
       </c>
       <c r="I19">
-        <v>15.67615695181744</v>
+        <v>3.197116324246227</v>
       </c>
       <c r="J19">
-        <v>6.201007276719235</v>
+        <v>13.05027109346736</v>
       </c>
       <c r="K19">
-        <v>14.46719578797873</v>
+        <v>19.76548650530309</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4.932582938351226</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.72279685719152</v>
       </c>
       <c r="N19">
-        <v>12.16418395384295</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.96916400374881</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.60413739266115</v>
+      </c>
+      <c r="P19">
+        <v>14.25401047737283</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.33069994815533</v>
+        <v>15.53366810657931</v>
       </c>
       <c r="C20">
-        <v>10.49017637090575</v>
+        <v>11.41081257515462</v>
       </c>
       <c r="D20">
-        <v>13.87238539332175</v>
+        <v>11.93558699172618</v>
       </c>
       <c r="E20">
-        <v>14.98365518406431</v>
+        <v>11.64124658726044</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.087266804684865</v>
+        <v>44.54139014484184</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.556773943994104</v>
       </c>
       <c r="I20">
-        <v>15.67483664483224</v>
+        <v>3.05361878998408</v>
       </c>
       <c r="J20">
-        <v>6.244123895323039</v>
+        <v>13.75380975511758</v>
       </c>
       <c r="K20">
-        <v>14.7445326894689</v>
+        <v>20.95368130535864</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.482599425787054</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.39743888519384</v>
       </c>
       <c r="N20">
-        <v>12.07927897532839</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>19.04684072913765</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>15.18322484102825</v>
+      </c>
+      <c r="P20">
+        <v>14.54865472152634</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35003044212179</v>
+        <v>16.52012490603214</v>
       </c>
       <c r="C21">
-        <v>11.15881272490266</v>
+        <v>12.18915490368985</v>
       </c>
       <c r="D21">
-        <v>14.53775371568921</v>
+        <v>12.55526624230053</v>
       </c>
       <c r="E21">
-        <v>15.69604201349183</v>
+        <v>12.31716859289453</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.080301199862657</v>
+        <v>46.32671675711798</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.203588613924105</v>
       </c>
       <c r="I21">
-        <v>15.68931392412645</v>
+        <v>2.811889451139416</v>
       </c>
       <c r="J21">
-        <v>6.391614648673431</v>
+        <v>14.02443354750504</v>
       </c>
       <c r="K21">
-        <v>15.64491528453373</v>
+        <v>21.38655191883873</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.686873717102928</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.31279433057298</v>
       </c>
       <c r="N21">
-        <v>11.79601939865607</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>19.32898200532562</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.9925787721599</v>
+      </c>
+      <c r="P21">
+        <v>14.44866558184497</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.9893367776564</v>
+        <v>17.14071952795826</v>
       </c>
       <c r="C22">
-        <v>11.57910804899312</v>
+        <v>12.62866621777835</v>
       </c>
       <c r="D22">
-        <v>14.96592501300277</v>
+        <v>12.89419711512182</v>
       </c>
       <c r="E22">
-        <v>16.1551091063212</v>
+        <v>12.6492625504405</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.075812443032308</v>
+        <v>47.39263098561387</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.991769321444562</v>
       </c>
       <c r="I22">
-        <v>15.71367062284744</v>
+        <v>2.648285968039738</v>
       </c>
       <c r="J22">
-        <v>6.489923934636291</v>
+        <v>14.18583827270613</v>
       </c>
       <c r="K22">
-        <v>16.21022203946542</v>
+        <v>21.64948869916995</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.787997918103563</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.87200384624335</v>
       </c>
       <c r="N22">
-        <v>11.61218695153733</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>19.52964567268221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.44498018830424</v>
+      </c>
+      <c r="P22">
+        <v>14.37604762966851</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.65056504660405</v>
+        <v>16.82959623914689</v>
       </c>
       <c r="C23">
-        <v>11.35629845203473</v>
+        <v>12.37392328525961</v>
       </c>
       <c r="D23">
-        <v>14.73803343643538</v>
+        <v>12.71414470420001</v>
       </c>
       <c r="E23">
-        <v>15.910713812472</v>
+        <v>12.47307570097559</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.078202688337847</v>
+        <v>46.89112526457912</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.103304686612578</v>
       </c>
       <c r="I23">
-        <v>15.6992562376448</v>
+        <v>2.722819747310345</v>
       </c>
       <c r="J23">
-        <v>6.437281513794907</v>
+        <v>14.11325963383946</v>
       </c>
       <c r="K23">
-        <v>15.91060629880572</v>
+        <v>21.54014166116093</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.734581967575924</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.58011836814887</v>
       </c>
       <c r="N23">
-        <v>11.71019692995199</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>19.42102768252536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>16.20728068684939</v>
+      </c>
+      <c r="P23">
+        <v>14.42374876425471</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.31358083965229</v>
+        <v>15.56684065543477</v>
       </c>
       <c r="C24">
-        <v>10.47896207105945</v>
+        <v>11.41127363526708</v>
       </c>
       <c r="D24">
-        <v>13.86140243060491</v>
+        <v>12.01383506387364</v>
       </c>
       <c r="E24">
-        <v>14.97190685087519</v>
+        <v>11.78504507136246</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.087381801774698</v>
+        <v>44.86085719944765</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.535628948729694</v>
       </c>
       <c r="I24">
-        <v>15.67484000735139</v>
+        <v>3.032909210423152</v>
       </c>
       <c r="J24">
-        <v>6.241746149089363</v>
+        <v>13.81949197851418</v>
       </c>
       <c r="K24">
-        <v>14.7294216073192</v>
+        <v>21.07827352363242</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.52729115190549</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.41901596323654</v>
       </c>
       <c r="N24">
-        <v>12.08393349083132</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>19.0424967912825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>15.27505517070745</v>
+      </c>
+      <c r="P24">
+        <v>14.59157390595053</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75386380969978</v>
+        <v>14.1189733379154</v>
       </c>
       <c r="C25">
-        <v>9.459200207460185</v>
+        <v>10.30289395960821</v>
       </c>
       <c r="D25">
-        <v>12.8896894572856</v>
+        <v>11.22113900610945</v>
       </c>
       <c r="E25">
-        <v>13.93400675383348</v>
+        <v>10.99997231766119</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.097588318576972</v>
+        <v>42.62608833898292</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.020297666981588</v>
       </c>
       <c r="I25">
-        <v>15.70732225105622</v>
+        <v>3.383249234843903</v>
       </c>
       <c r="J25">
-        <v>6.039331695291366</v>
+        <v>13.51015334263877</v>
       </c>
       <c r="K25">
-        <v>13.35417587024773</v>
+        <v>20.58669142116871</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.294137356123593</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.07134284948941</v>
       </c>
       <c r="N25">
-        <v>12.493913078058</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.70074963250105</v>
+        <v>14.21199000379217</v>
+      </c>
+      <c r="P25">
+        <v>14.77676488023774</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.05198770692551</v>
+        <v>12.40424199887803</v>
       </c>
       <c r="C2">
-        <v>9.389744748924235</v>
+        <v>10.29508098369369</v>
       </c>
       <c r="D2">
-        <v>10.6079731110882</v>
+        <v>10.66682718850479</v>
       </c>
       <c r="E2">
-        <v>10.38681793345947</v>
+        <v>10.50711460839047</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>41.13122698505986</v>
+        <v>38.28004737011288</v>
       </c>
       <c r="H2">
-        <v>3.391024219776002</v>
+        <v>3.273688678094921</v>
       </c>
       <c r="I2">
-        <v>3.629173954080032</v>
+        <v>3.423525447874247</v>
       </c>
       <c r="J2">
-        <v>13.32449805798108</v>
+        <v>12.80905985778262</v>
       </c>
       <c r="K2">
-        <v>20.31112938184211</v>
+        <v>18.88498160691448</v>
       </c>
       <c r="L2">
-        <v>5.115152279347815</v>
+        <v>15.10533664326333</v>
       </c>
       <c r="M2">
-        <v>12.13559529779313</v>
+        <v>12.91582141934328</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.189548530188697</v>
       </c>
       <c r="O2">
-        <v>13.38973209723812</v>
+        <v>11.95735090036863</v>
       </c>
       <c r="P2">
-        <v>14.9394049142603</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.31544294183242</v>
+      </c>
+      <c r="R2">
+        <v>14.462456141711</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.24423534448151</v>
+        <v>11.60851625857445</v>
       </c>
       <c r="C3">
-        <v>8.80701428006186</v>
+        <v>9.6412284449335</v>
       </c>
       <c r="D3">
-        <v>10.17572318010653</v>
+        <v>10.24114112925726</v>
       </c>
       <c r="E3">
-        <v>9.949928699037509</v>
+        <v>10.08429473070639</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.00298353129164</v>
+        <v>37.44303742942215</v>
       </c>
       <c r="H3">
-        <v>3.655164330943517</v>
+        <v>3.520617999529679</v>
       </c>
       <c r="I3">
-        <v>3.819025096586991</v>
+        <v>3.587945765375173</v>
       </c>
       <c r="J3">
-        <v>13.18282021258503</v>
+        <v>12.66466671094114</v>
       </c>
       <c r="K3">
-        <v>20.08281021070755</v>
+        <v>18.75452001566513</v>
       </c>
       <c r="L3">
-        <v>4.98809631354382</v>
+        <v>15.11892823908432</v>
       </c>
       <c r="M3">
-        <v>11.45574947876507</v>
+        <v>12.72429038489608</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.071759718192402</v>
       </c>
       <c r="O3">
-        <v>12.80181916727358</v>
+        <v>11.28601763610256</v>
       </c>
       <c r="P3">
-        <v>15.03891725634808</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.73616799502942</v>
+      </c>
+      <c r="R3">
+        <v>14.58344347581711</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7198306792404</v>
+        <v>11.09805963546703</v>
       </c>
       <c r="C4">
-        <v>8.437014530294986</v>
+        <v>9.225991377472706</v>
       </c>
       <c r="D4">
-        <v>9.902802955767323</v>
+        <v>9.972658230967214</v>
       </c>
       <c r="E4">
-        <v>9.671696764118625</v>
+        <v>9.815467023080862</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.30151743762272</v>
+        <v>36.92705280039153</v>
       </c>
       <c r="H4">
-        <v>3.823089873640684</v>
+        <v>3.677729084041655</v>
       </c>
       <c r="I4">
-        <v>3.940297017873466</v>
+        <v>3.693346908702664</v>
       </c>
       <c r="J4">
-        <v>13.09728819925824</v>
+        <v>12.5749147749158</v>
       </c>
       <c r="K4">
-        <v>19.94316070411933</v>
+        <v>18.67431811208055</v>
       </c>
       <c r="L4">
-        <v>4.907503325070943</v>
+        <v>15.12347748532071</v>
       </c>
       <c r="M4">
-        <v>11.01965528380424</v>
+        <v>12.622281253746</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>4.997089350583725</v>
       </c>
       <c r="O4">
-        <v>12.42836502237453</v>
+        <v>10.85443655489169</v>
       </c>
       <c r="P4">
-        <v>15.10069610946065</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.36796988157959</v>
+      </c>
+      <c r="R4">
+        <v>14.65829185709042</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.49280587355101</v>
+        <v>10.88561678511233</v>
       </c>
       <c r="C5">
-        <v>8.291300214573999</v>
+        <v>9.061104073129171</v>
       </c>
       <c r="D5">
-        <v>9.789810712213333</v>
+        <v>9.86158663551929</v>
       </c>
       <c r="E5">
-        <v>9.555824963284287</v>
+        <v>9.703639250461746</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>38.99371369136183</v>
+        <v>36.69756588052748</v>
       </c>
       <c r="H5">
-        <v>3.893341716108103</v>
+        <v>3.74347770338612</v>
       </c>
       <c r="I5">
-        <v>3.993520050985359</v>
+        <v>3.740446397995129</v>
       </c>
       <c r="J5">
-        <v>13.05899738056869</v>
+        <v>12.53437305653337</v>
       </c>
       <c r="K5">
-        <v>19.87778330432521</v>
+        <v>18.6336435392421</v>
       </c>
       <c r="L5">
-        <v>4.873895804299674</v>
+        <v>15.11737032355268</v>
       </c>
       <c r="M5">
-        <v>10.83595486626457</v>
+        <v>12.57969366470809</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4.965968753058521</v>
       </c>
       <c r="O5">
-        <v>12.2724189438219</v>
+        <v>10.67242441086822</v>
       </c>
       <c r="P5">
-        <v>15.12358812065208</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.21418270630707</v>
+      </c>
+      <c r="R5">
+        <v>14.68686270724548</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.44703853985519</v>
+        <v>10.84251355326023</v>
       </c>
       <c r="C6">
-        <v>8.276746675902379</v>
+        <v>9.042869091147184</v>
       </c>
       <c r="D6">
-        <v>9.770932701912493</v>
+        <v>9.843041981759825</v>
       </c>
       <c r="E6">
-        <v>9.536364037024004</v>
+        <v>9.684878057815698</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>38.91795165427538</v>
+        <v>36.63638326356494</v>
       </c>
       <c r="H6">
-        <v>3.905526312328145</v>
+        <v>3.754872815148528</v>
       </c>
       <c r="I6">
-        <v>4.00575645847947</v>
+        <v>3.752207003106521</v>
       </c>
       <c r="J6">
-        <v>13.04799977581893</v>
+        <v>12.52309007769598</v>
       </c>
       <c r="K6">
-        <v>19.85638929656223</v>
+        <v>18.6171523169391</v>
       </c>
       <c r="L6">
-        <v>4.868131304177941</v>
+        <v>15.10775365888796</v>
       </c>
       <c r="M6">
-        <v>10.80341719458848</v>
+        <v>12.56668223910528</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.96063771503027</v>
       </c>
       <c r="O6">
-        <v>12.24538761768091</v>
+        <v>10.64020852844539</v>
       </c>
       <c r="P6">
-        <v>15.12440005316865</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.18754647136424</v>
+      </c>
+      <c r="R6">
+        <v>14.68907848271183</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.69637872524352</v>
+        <v>11.07071271401398</v>
       </c>
       <c r="C7">
-        <v>8.461251715516932</v>
+        <v>9.235243544651455</v>
       </c>
       <c r="D7">
-        <v>9.901255067394123</v>
+        <v>9.971486023893167</v>
       </c>
       <c r="E7">
-        <v>9.669945588424827</v>
+        <v>9.814292422226025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.23097380084226</v>
+        <v>36.92611026399895</v>
       </c>
       <c r="H7">
-        <v>3.825190064331208</v>
+        <v>3.680424796985922</v>
       </c>
       <c r="I7">
-        <v>3.949833606243465</v>
+        <v>3.704956534005908</v>
       </c>
       <c r="J7">
-        <v>13.08409800953944</v>
+        <v>12.51334908521375</v>
       </c>
       <c r="K7">
-        <v>19.91359624218363</v>
+        <v>18.63519643577282</v>
       </c>
       <c r="L7">
-        <v>4.906664234391187</v>
+        <v>15.09006122025406</v>
       </c>
       <c r="M7">
-        <v>11.01246283367635</v>
+        <v>12.5965664184948</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4.996261683169174</v>
       </c>
       <c r="O7">
-        <v>12.42368428403106</v>
+        <v>10.84004620204805</v>
       </c>
       <c r="P7">
-        <v>15.09285741136547</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.35965276081604</v>
+      </c>
+      <c r="R7">
+        <v>14.64821073134246</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75434912876235</v>
+        <v>12.09817184390659</v>
       </c>
       <c r="C8">
-        <v>9.223419049019252</v>
+        <v>10.06153978831625</v>
       </c>
       <c r="D8">
-        <v>10.46054317384777</v>
+        <v>10.52270217945739</v>
       </c>
       <c r="E8">
-        <v>10.23807840925837</v>
+        <v>10.36476024032984</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.65938231137057</v>
+        <v>38.12204850624852</v>
       </c>
       <c r="H8">
-        <v>3.482389633501831</v>
+        <v>3.361384662228848</v>
       </c>
       <c r="I8">
-        <v>3.704951818569383</v>
+        <v>3.494674952669163</v>
       </c>
       <c r="J8">
-        <v>13.2588803968881</v>
+        <v>12.58533809896935</v>
       </c>
       <c r="K8">
-        <v>20.19499619780019</v>
+        <v>18.76631308948835</v>
       </c>
       <c r="L8">
-        <v>5.071399419967944</v>
+        <v>15.05015037850447</v>
       </c>
       <c r="M8">
-        <v>11.89924876075345</v>
+        <v>12.79509482542476</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.148854052798871</v>
       </c>
       <c r="O8">
-        <v>13.18644201604526</v>
+        <v>11.70140010179725</v>
       </c>
       <c r="P8">
-        <v>14.96300276836364</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.10339786446385</v>
+      </c>
+      <c r="R8">
+        <v>14.48377207875931</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63386782374105</v>
+        <v>13.92868046677649</v>
       </c>
       <c r="C9">
-        <v>10.64841546482525</v>
+        <v>11.57741227830895</v>
       </c>
       <c r="D9">
-        <v>11.49294283590285</v>
+        <v>11.54104503239551</v>
       </c>
       <c r="E9">
-        <v>11.27027695307734</v>
+        <v>11.36619891691706</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>43.49202697318918</v>
+        <v>40.31186032229443</v>
       </c>
       <c r="H9">
-        <v>2.852615385419927</v>
+        <v>2.773847026092787</v>
       </c>
       <c r="I9">
-        <v>3.246803420394065</v>
+        <v>3.09758689474856</v>
       </c>
       <c r="J9">
-        <v>13.63493630635789</v>
+        <v>12.9150835222361</v>
       </c>
       <c r="K9">
-        <v>20.80033544795663</v>
+        <v>19.11318667233969</v>
       </c>
       <c r="L9">
-        <v>5.374552854640101</v>
+        <v>15.01754853756483</v>
       </c>
       <c r="M9">
-        <v>13.54010686044391</v>
+        <v>13.36463447222484</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.430121673725938</v>
       </c>
       <c r="O9">
-        <v>14.58159546899165</v>
+        <v>13.37216273113901</v>
       </c>
       <c r="P9">
-        <v>14.72778894794554</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.47465730538723</v>
+      </c>
+      <c r="R9">
+        <v>14.19006853844378</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.90978202736699</v>
+        <v>15.07544167497269</v>
       </c>
       <c r="C10">
-        <v>11.59624663878034</v>
+        <v>12.52765845291714</v>
       </c>
       <c r="D10">
-        <v>12.09651045103655</v>
+        <v>12.13787088572451</v>
       </c>
       <c r="E10">
-        <v>11.7823450661132</v>
+        <v>11.86210753028765</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.17453972977539</v>
+        <v>41.94069992472141</v>
       </c>
       <c r="H10">
-        <v>2.449376244041462</v>
+        <v>2.403495133520891</v>
       </c>
       <c r="I10">
-        <v>2.944687658659134</v>
+        <v>2.842660482756502</v>
       </c>
       <c r="J10">
-        <v>13.85039425567169</v>
+        <v>12.83135695881407</v>
       </c>
       <c r="K10">
-        <v>21.12798524241891</v>
+        <v>19.20440006557301</v>
       </c>
       <c r="L10">
-        <v>5.525342662088134</v>
+        <v>14.85450511011315</v>
       </c>
       <c r="M10">
-        <v>14.70950194578574</v>
+        <v>13.71879585951831</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.566003937295712</v>
       </c>
       <c r="O10">
-        <v>15.40873195099173</v>
+        <v>14.47206774959272</v>
       </c>
       <c r="P10">
-        <v>14.51943196979882</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.26724862015335</v>
+      </c>
+      <c r="R10">
+        <v>13.92997639868667</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.20929827754131</v>
+        <v>15.35274285440738</v>
       </c>
       <c r="C11">
-        <v>11.52155250797</v>
+        <v>12.28276922645379</v>
       </c>
       <c r="D11">
-        <v>11.41342516275272</v>
+        <v>11.45626103089454</v>
       </c>
       <c r="E11">
-        <v>10.39308951304947</v>
+        <v>10.47326754244545</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.20930421391708</v>
+        <v>40.8286101870852</v>
       </c>
       <c r="H11">
-        <v>3.24882134045317</v>
+        <v>3.223643085623797</v>
       </c>
       <c r="I11">
-        <v>2.890646556416065</v>
+        <v>2.808246248120987</v>
       </c>
       <c r="J11">
-        <v>13.40257270458054</v>
+        <v>11.91116876665787</v>
       </c>
       <c r="K11">
-        <v>20.3354379820049</v>
+        <v>18.36269473903304</v>
       </c>
       <c r="L11">
-        <v>5.16354432702803</v>
+        <v>14.13452178214649</v>
       </c>
       <c r="M11">
-        <v>14.89015226183109</v>
+        <v>13.19086938181412</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.196964064010241</v>
       </c>
       <c r="O11">
-        <v>14.68034856483914</v>
+        <v>14.58618392782397</v>
       </c>
       <c r="P11">
-        <v>14.13070757516801</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.50374507180062</v>
+      </c>
+      <c r="R11">
+        <v>13.58562339096021</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.22556173427001</v>
+        <v>15.38971053545228</v>
       </c>
       <c r="C12">
-        <v>11.23110194107909</v>
+        <v>11.87469070921649</v>
       </c>
       <c r="D12">
-        <v>10.70506711889642</v>
+        <v>10.7490789093256</v>
       </c>
       <c r="E12">
-        <v>9.186123610587375</v>
+        <v>9.266129107800182</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>41.26119453705915</v>
+        <v>39.3905414667122</v>
       </c>
       <c r="H12">
-        <v>4.504203986379684</v>
+        <v>4.486816156376771</v>
       </c>
       <c r="I12">
-        <v>2.887004204033333</v>
+        <v>2.806887352311477</v>
       </c>
       <c r="J12">
-        <v>12.9939244880209</v>
+        <v>11.35253101734904</v>
       </c>
       <c r="K12">
-        <v>19.63734384490616</v>
+        <v>17.71589548171554</v>
       </c>
       <c r="L12">
-        <v>4.955360529387686</v>
+        <v>13.63349244398907</v>
       </c>
       <c r="M12">
-        <v>14.80970041112752</v>
+        <v>12.72299122845724</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>4.983434843700142</v>
       </c>
       <c r="O12">
-        <v>13.88744628946887</v>
+        <v>14.48339902590008</v>
       </c>
       <c r="P12">
-        <v>13.88056379506953</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.69985199102605</v>
+      </c>
+      <c r="R12">
+        <v>13.39722781683233</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.002135261815</v>
+        <v>15.23234495121327</v>
       </c>
       <c r="C13">
-        <v>10.77594710707599</v>
+        <v>11.35594040841081</v>
       </c>
       <c r="D13">
-        <v>9.920202746034715</v>
+        <v>9.964499757083269</v>
       </c>
       <c r="E13">
-        <v>8.061196786894206</v>
+        <v>8.141238196433111</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>39.08401177628932</v>
+        <v>37.35286011838581</v>
       </c>
       <c r="H13">
-        <v>5.869606665882412</v>
+        <v>5.852683687168283</v>
       </c>
       <c r="I13">
-        <v>2.936924308729615</v>
+        <v>2.847431709297614</v>
       </c>
       <c r="J13">
-        <v>12.56992363430259</v>
+        <v>11.0830547547562</v>
       </c>
       <c r="K13">
-        <v>18.92442664259634</v>
+        <v>17.16147652075096</v>
       </c>
       <c r="L13">
-        <v>4.862812722005162</v>
+        <v>13.24517547726715</v>
       </c>
       <c r="M13">
-        <v>14.51534266030616</v>
+        <v>12.26485728013509</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4.888835562915595</v>
       </c>
       <c r="O13">
-        <v>12.97609205139931</v>
+        <v>14.21312975244449</v>
       </c>
       <c r="P13">
-        <v>13.71080668416197</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.80257518401659</v>
+      </c>
+      <c r="R13">
+        <v>13.30467783235583</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.72968761740894</v>
+        <v>15.02748512859705</v>
       </c>
       <c r="C14">
-        <v>10.38164785490727</v>
+        <v>10.93911083719853</v>
       </c>
       <c r="D14">
-        <v>9.33134082533053</v>
+        <v>9.375629359775127</v>
       </c>
       <c r="E14">
-        <v>7.352773668351838</v>
+        <v>7.43420490060269</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>37.42927823281871</v>
+        <v>35.64279419307051</v>
       </c>
       <c r="H14">
-        <v>6.856356256649882</v>
+        <v>6.837960815767132</v>
       </c>
       <c r="I14">
-        <v>2.99879883747413</v>
+        <v>2.89816275108579</v>
       </c>
       <c r="J14">
-        <v>12.26388898073446</v>
+        <v>11.0033923014761</v>
       </c>
       <c r="K14">
-        <v>18.41378624563156</v>
+        <v>16.80636928537698</v>
       </c>
       <c r="L14">
-        <v>4.872213019353863</v>
+        <v>13.01369767437437</v>
       </c>
       <c r="M14">
-        <v>14.2074552324392</v>
+        <v>11.9448508312121</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>4.899103026159461</v>
       </c>
       <c r="O14">
-        <v>12.2762107192077</v>
+        <v>13.94287399464031</v>
       </c>
       <c r="P14">
-        <v>13.63078073692343</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.12329945565598</v>
+      </c>
+      <c r="R14">
+        <v>13.28042317895983</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.60466753366368</v>
+        <v>14.92851274697174</v>
       </c>
       <c r="C15">
-        <v>10.25629639850673</v>
+        <v>10.81766676840155</v>
       </c>
       <c r="D15">
-        <v>9.171305365347994</v>
+        <v>9.215595771422095</v>
       </c>
       <c r="E15">
-        <v>7.189882915452345</v>
+        <v>7.272815153984588</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.95752134404558</v>
+        <v>35.09562035673208</v>
       </c>
       <c r="H15">
-        <v>7.090309508818928</v>
+        <v>7.070736617087175</v>
       </c>
       <c r="I15">
-        <v>3.030187589024204</v>
+        <v>2.925140369301461</v>
       </c>
       <c r="J15">
-        <v>12.18272296406811</v>
+        <v>11.02708577742904</v>
       </c>
       <c r="K15">
-        <v>18.27781521243143</v>
+        <v>16.7276973213125</v>
       </c>
       <c r="L15">
-        <v>4.880031674285522</v>
+        <v>12.96963734577777</v>
       </c>
       <c r="M15">
-        <v>14.0838428578975</v>
+        <v>11.86232086324946</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.908386781578087</v>
       </c>
       <c r="O15">
-        <v>12.0792538249779</v>
+        <v>13.83751326610573</v>
       </c>
       <c r="P15">
-        <v>13.62388859982686</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.93594498117297</v>
+      </c>
+      <c r="R15">
+        <v>13.28847290955996</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.09986883686057</v>
+        <v>14.50392647424276</v>
       </c>
       <c r="C16">
-        <v>9.930560801965823</v>
+        <v>10.57055626922341</v>
       </c>
       <c r="D16">
-        <v>9.038464028074243</v>
+        <v>9.083286446655753</v>
       </c>
       <c r="E16">
-        <v>7.150641887760662</v>
+        <v>7.244433294637576</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.56453825995577</v>
+        <v>34.20153350913059</v>
       </c>
       <c r="H16">
-        <v>6.931254494562562</v>
+        <v>6.902865274939778</v>
       </c>
       <c r="I16">
-        <v>3.153556453306209</v>
+        <v>3.026538252990732</v>
       </c>
       <c r="J16">
-        <v>12.16437994477598</v>
+        <v>11.42966938530969</v>
       </c>
       <c r="K16">
-        <v>18.2582969364017</v>
+        <v>16.86510944675382</v>
       </c>
       <c r="L16">
-        <v>4.824987239326535</v>
+        <v>13.13437666889194</v>
       </c>
       <c r="M16">
-        <v>13.63960494596299</v>
+        <v>11.87095206861925</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.864457083135266</v>
       </c>
       <c r="O16">
-        <v>11.86832501335744</v>
+        <v>13.46929627109596</v>
       </c>
       <c r="P16">
-        <v>13.74259809791117</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.76315169382577</v>
+      </c>
+      <c r="R16">
+        <v>13.41849414262719</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.85553459351536</v>
+        <v>14.27866017212968</v>
       </c>
       <c r="C17">
-        <v>9.899147064960214</v>
+        <v>10.59756454049473</v>
       </c>
       <c r="D17">
-        <v>9.257947626715541</v>
+        <v>9.303470372559863</v>
       </c>
       <c r="E17">
-        <v>7.481491408531669</v>
+        <v>7.580561878235442</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.16124902146899</v>
+        <v>34.52471131595699</v>
       </c>
       <c r="H17">
-        <v>6.263068439617128</v>
+        <v>6.227049058673225</v>
       </c>
       <c r="I17">
-        <v>3.21640865450676</v>
+        <v>3.079265425582147</v>
       </c>
       <c r="J17">
-        <v>12.31353288056976</v>
+        <v>11.7426003024451</v>
       </c>
       <c r="K17">
-        <v>18.51450046146109</v>
+        <v>17.14746434650462</v>
       </c>
       <c r="L17">
-        <v>4.764080851461631</v>
+        <v>13.3829293387358</v>
       </c>
       <c r="M17">
-        <v>13.46356774257166</v>
+        <v>12.03426123968901</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4.810460855256812</v>
       </c>
       <c r="O17">
-        <v>12.08968021222799</v>
+        <v>13.32274668615744</v>
       </c>
       <c r="P17">
-        <v>13.87398615847764</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.99864828686201</v>
+      </c>
+      <c r="R17">
+        <v>13.53303767550021</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.82995778040934</v>
+        <v>14.22786689959706</v>
       </c>
       <c r="C18">
-        <v>10.10512299146447</v>
+        <v>10.87516805363798</v>
       </c>
       <c r="D18">
-        <v>9.809708005606195</v>
+        <v>9.85520417370974</v>
       </c>
       <c r="E18">
-        <v>8.27441887395473</v>
+        <v>8.372674545244633</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.72471031266226</v>
+        <v>35.83940863644123</v>
       </c>
       <c r="H18">
-        <v>5.124562730677738</v>
+        <v>5.079678760178465</v>
       </c>
       <c r="I18">
-        <v>3.221974814039193</v>
+        <v>3.081258235369212</v>
       </c>
       <c r="J18">
-        <v>12.63376506714584</v>
+        <v>12.10383693673593</v>
       </c>
       <c r="K18">
-        <v>19.06195923729525</v>
+        <v>17.63315657116961</v>
       </c>
       <c r="L18">
-        <v>4.767816545662308</v>
+        <v>13.77053214849627</v>
       </c>
       <c r="M18">
-        <v>13.50931440617003</v>
+        <v>12.37838398618548</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.818094511427123</v>
       </c>
       <c r="O18">
-        <v>12.7128603365697</v>
+        <v>13.37250556465897</v>
       </c>
       <c r="P18">
-        <v>14.04852465175321</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.62347615633396</v>
+      </c>
+      <c r="R18">
+        <v>13.66537682847954</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.95304265672452</v>
+        <v>14.29736339931396</v>
       </c>
       <c r="C19">
-        <v>10.52045561489243</v>
+        <v>11.37523650535669</v>
       </c>
       <c r="D19">
-        <v>10.58724242876303</v>
+        <v>10.63192019838958</v>
       </c>
       <c r="E19">
-        <v>9.483961803353569</v>
+        <v>9.577177258338017</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.83730349498424</v>
+        <v>37.69550560432229</v>
       </c>
       <c r="H19">
-        <v>3.829658696028283</v>
+        <v>3.77388643011693</v>
       </c>
       <c r="I19">
-        <v>3.197116324246227</v>
+        <v>3.061940878882945</v>
       </c>
       <c r="J19">
-        <v>13.05027109346736</v>
+        <v>12.49461383077095</v>
       </c>
       <c r="K19">
-        <v>19.76548650530309</v>
+        <v>18.22154518237883</v>
       </c>
       <c r="L19">
-        <v>4.932582938351226</v>
+        <v>14.22332857273544</v>
       </c>
       <c r="M19">
-        <v>13.72279685719152</v>
+        <v>12.82075532840391</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>4.983464098616226</v>
       </c>
       <c r="O19">
-        <v>13.60413739266115</v>
+        <v>13.57476051255648</v>
       </c>
       <c r="P19">
-        <v>14.25401047737283</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.50904743221119</v>
+      </c>
+      <c r="R19">
+        <v>13.81176987616085</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53366810657931</v>
+        <v>14.74957730992662</v>
       </c>
       <c r="C20">
-        <v>11.41081257515462</v>
+        <v>12.3654261470911</v>
       </c>
       <c r="D20">
-        <v>11.93558699172618</v>
+        <v>11.97756928341992</v>
       </c>
       <c r="E20">
-        <v>11.64124658726044</v>
+        <v>11.72356283915542</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>44.54139014484184</v>
+        <v>41.11873750702769</v>
       </c>
       <c r="H20">
-        <v>2.556773943994104</v>
+        <v>2.499771368799309</v>
       </c>
       <c r="I20">
-        <v>3.05361878998408</v>
+        <v>2.942441323772946</v>
       </c>
       <c r="J20">
-        <v>13.75380975511758</v>
+        <v>12.97762196058206</v>
       </c>
       <c r="K20">
-        <v>20.95368130535864</v>
+        <v>19.14070462494092</v>
       </c>
       <c r="L20">
-        <v>5.482599425787054</v>
+        <v>14.86792345373234</v>
       </c>
       <c r="M20">
-        <v>14.39743888519384</v>
+        <v>13.59195832649944</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.527347548476506</v>
       </c>
       <c r="O20">
-        <v>15.18322484102825</v>
+        <v>14.19897922032104</v>
       </c>
       <c r="P20">
-        <v>14.54865472152634</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.0623247302003</v>
+      </c>
+      <c r="R20">
+        <v>13.98972989887297</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.52012490603214</v>
+        <v>15.55753115268513</v>
       </c>
       <c r="C21">
-        <v>12.18915490368985</v>
+        <v>13.00450517917857</v>
       </c>
       <c r="D21">
-        <v>12.55526624230053</v>
+        <v>12.59839436377047</v>
       </c>
       <c r="E21">
-        <v>12.31716859289453</v>
+        <v>12.39684848119045</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>46.32671675711798</v>
+        <v>43.9328863638285</v>
       </c>
       <c r="H21">
-        <v>2.203588613924105</v>
+        <v>2.183474514291347</v>
       </c>
       <c r="I21">
-        <v>2.811889451139416</v>
+        <v>2.747932960582689</v>
       </c>
       <c r="J21">
-        <v>14.02443354750504</v>
+        <v>12.18533915978748</v>
       </c>
       <c r="K21">
-        <v>21.38655191883873</v>
+        <v>19.15113307619929</v>
       </c>
       <c r="L21">
-        <v>5.686873717102928</v>
+        <v>14.70079625769086</v>
       </c>
       <c r="M21">
-        <v>15.31279433057298</v>
+        <v>13.82874298645908</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.720527651124926</v>
       </c>
       <c r="O21">
-        <v>15.9925787721599</v>
+        <v>14.95553311454533</v>
       </c>
       <c r="P21">
-        <v>14.44866558184497</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.78564200594321</v>
+      </c>
+      <c r="R21">
+        <v>13.77384863313916</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.14071952795826</v>
+        <v>16.06489706022314</v>
       </c>
       <c r="C22">
-        <v>12.62866621777835</v>
+        <v>13.34077369116037</v>
       </c>
       <c r="D22">
-        <v>12.89419711512182</v>
+        <v>12.93898705513547</v>
       </c>
       <c r="E22">
-        <v>12.6492625504405</v>
+        <v>12.72918725558028</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.39263098561387</v>
+        <v>45.77570761960062</v>
       </c>
       <c r="H22">
-        <v>1.991769321444562</v>
+        <v>1.995277365912258</v>
       </c>
       <c r="I22">
-        <v>2.648285968039738</v>
+        <v>2.612212086161487</v>
       </c>
       <c r="J22">
-        <v>14.18583827270613</v>
+        <v>11.62558579571032</v>
       </c>
       <c r="K22">
-        <v>21.64948869916995</v>
+        <v>19.12833484483007</v>
       </c>
       <c r="L22">
-        <v>5.787997918103563</v>
+        <v>14.57042474050085</v>
       </c>
       <c r="M22">
-        <v>15.87200384624335</v>
+        <v>13.96659436463936</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.81524412611087</v>
       </c>
       <c r="O22">
-        <v>16.44498018830424</v>
+        <v>15.40921554404239</v>
       </c>
       <c r="P22">
-        <v>14.37604762966851</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.17948124149214</v>
+      </c>
+      <c r="R22">
+        <v>13.62380209418966</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.82959623914689</v>
+        <v>15.82202653851989</v>
       </c>
       <c r="C23">
-        <v>12.37392328525961</v>
+        <v>13.16716260291797</v>
       </c>
       <c r="D23">
-        <v>12.71414470420001</v>
+        <v>12.75708947438294</v>
       </c>
       <c r="E23">
-        <v>12.47307570097559</v>
+        <v>12.55126764473302</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.89112526457912</v>
+        <v>44.69944147537068</v>
       </c>
       <c r="H23">
-        <v>2.103304686612578</v>
+        <v>2.093052314585702</v>
       </c>
       <c r="I23">
-        <v>2.722819747310345</v>
+        <v>2.668529200056964</v>
       </c>
       <c r="J23">
-        <v>14.11325963383946</v>
+        <v>12.04081709693528</v>
       </c>
       <c r="K23">
-        <v>21.54014166116093</v>
+        <v>19.19785406580096</v>
       </c>
       <c r="L23">
-        <v>5.734581967575924</v>
+        <v>14.68104098331192</v>
       </c>
       <c r="M23">
-        <v>15.58011836814887</v>
+        <v>13.93822060507621</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.764993611320272</v>
       </c>
       <c r="O23">
-        <v>16.20728068684939</v>
+        <v>15.18721591026962</v>
       </c>
       <c r="P23">
-        <v>14.42374876425471</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.98081366916322</v>
+      </c>
+      <c r="R23">
+        <v>13.7185652967495</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.56684065543477</v>
+        <v>14.77704253279568</v>
       </c>
       <c r="C24">
-        <v>11.41127363526708</v>
+        <v>12.37563342176608</v>
       </c>
       <c r="D24">
-        <v>12.01383506387364</v>
+        <v>12.05570132153199</v>
       </c>
       <c r="E24">
-        <v>11.78504507136246</v>
+        <v>11.86696214315339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>44.86085719944765</v>
+        <v>41.39998504214993</v>
       </c>
       <c r="H24">
-        <v>2.535628948729694</v>
+        <v>2.478911361212253</v>
       </c>
       <c r="I24">
-        <v>3.032909210423152</v>
+        <v>2.918684913656046</v>
       </c>
       <c r="J24">
-        <v>13.81949197851418</v>
+        <v>13.04547953819943</v>
       </c>
       <c r="K24">
-        <v>21.07827352363242</v>
+        <v>19.25121511570026</v>
       </c>
       <c r="L24">
-        <v>5.52729115190549</v>
+        <v>14.9537783377442</v>
       </c>
       <c r="M24">
-        <v>14.41901596323654</v>
+        <v>13.67376202669499</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.571934334973093</v>
       </c>
       <c r="O24">
-        <v>15.27505517070745</v>
+        <v>14.22004629610438</v>
       </c>
       <c r="P24">
-        <v>14.59157390595053</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.15389096196938</v>
+      </c>
+      <c r="R24">
+        <v>14.02310895537729</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1189733379154</v>
+        <v>13.43662320088</v>
       </c>
       <c r="C25">
-        <v>10.30289395960821</v>
+        <v>11.23413382110656</v>
       </c>
       <c r="D25">
-        <v>11.22113900610945</v>
+        <v>11.27232358172769</v>
       </c>
       <c r="E25">
-        <v>10.99997231766119</v>
+        <v>11.10303147850173</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>42.62608833898292</v>
+        <v>39.53193536072835</v>
       </c>
       <c r="H25">
-        <v>3.020297666981588</v>
+        <v>2.929143505270147</v>
       </c>
       <c r="I25">
-        <v>3.383249234843903</v>
+        <v>3.219552543712018</v>
       </c>
       <c r="J25">
-        <v>13.51015334263877</v>
+        <v>12.8724497318224</v>
       </c>
       <c r="K25">
-        <v>20.58669142116871</v>
+        <v>18.99052564835889</v>
       </c>
       <c r="L25">
-        <v>5.294137356123593</v>
+        <v>15.00709113718496</v>
       </c>
       <c r="M25">
-        <v>13.07134284948941</v>
+        <v>13.17717209349117</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.355568195883312</v>
       </c>
       <c r="O25">
-        <v>14.21199000379217</v>
+        <v>12.91720038698334</v>
       </c>
       <c r="P25">
-        <v>14.77676488023774</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>14.11648281829302</v>
+      </c>
+      <c r="R25">
+        <v>14.26258381765158</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
